--- a/Data/t14.1.xlsx
+++ b/Data/t14.1.xlsx
@@ -397,14 +397,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D2">
-        <v>804</v>
+        <v>887</v>
       </c>
       <c r="E2">
-        <v>-4.06</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="3">
@@ -420,14 +420,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D3">
-        <v>2405</v>
+        <v>2174</v>
       </c>
       <c r="E3">
-        <v>15.35</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="4">
@@ -443,14 +443,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D4">
-        <v>1904</v>
+        <v>1757</v>
       </c>
       <c r="E4">
-        <v>1.38</v>
+        <v>-20.39</v>
       </c>
     </row>
     <row r="5">
@@ -466,14 +466,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D5">
-        <v>2477</v>
+        <v>1937</v>
       </c>
       <c r="E5">
-        <v>34.11</v>
+        <v>-4.11</v>
       </c>
     </row>
     <row r="6">
@@ -489,14 +489,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D6">
-        <v>1940</v>
+        <v>2441</v>
       </c>
       <c r="E6">
-        <v>2.86</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="7">
@@ -512,14 +512,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D7">
-        <v>1396</v>
+        <v>1605</v>
       </c>
       <c r="E7">
-        <v>-4.19</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="8">
@@ -535,14 +535,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D8">
-        <v>2803</v>
+        <v>3050</v>
       </c>
       <c r="E8">
-        <v>-8.93</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="9">
@@ -558,14 +558,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D9">
-        <v>4021</v>
+        <v>4010</v>
       </c>
       <c r="E9">
-        <v>6.8</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="10">
@@ -581,14 +581,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D10">
-        <v>772</v>
+        <v>824</v>
       </c>
       <c r="E10">
-        <v>-3.98</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="11">
@@ -604,14 +604,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D11">
-        <v>2133</v>
+        <v>2062</v>
       </c>
       <c r="E11">
-        <v>-11.31</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="12">
@@ -627,14 +627,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D12">
-        <v>1635</v>
+        <v>1613</v>
       </c>
       <c r="E12">
-        <v>-14.13</v>
+        <v>-8.199999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -650,14 +650,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D13">
-        <v>1892</v>
+        <v>1908</v>
       </c>
       <c r="E13">
-        <v>-23.62</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="14">
@@ -673,14 +673,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D14">
-        <v>1974</v>
+        <v>2157</v>
       </c>
       <c r="E14">
-        <v>1.75</v>
+        <v>-11.63</v>
       </c>
     </row>
     <row r="15">
@@ -696,14 +696,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D15">
-        <v>1610</v>
+        <v>1315</v>
       </c>
       <c r="E15">
-        <v>15.33</v>
+        <v>-18.07</v>
       </c>
     </row>
     <row r="16">
@@ -719,14 +719,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D16">
-        <v>2753</v>
+        <v>2823</v>
       </c>
       <c r="E16">
-        <v>-1.78</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="17">
@@ -742,14 +742,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D17">
-        <v>3813</v>
+        <v>3615</v>
       </c>
       <c r="E17">
-        <v>-5.17</v>
+        <v>-9.85</v>
       </c>
     </row>
     <row r="18">
@@ -765,14 +765,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D18">
-        <v>837</v>
+        <v>869</v>
       </c>
       <c r="E18">
-        <v>8.42</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="19">
@@ -788,14 +788,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D19">
-        <v>2255</v>
+        <v>2341</v>
       </c>
       <c r="E19">
-        <v>5.72</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="20">
@@ -811,14 +811,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D20">
-        <v>1667</v>
+        <v>1678</v>
       </c>
       <c r="E20">
-        <v>1.96</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="21">
@@ -834,14 +834,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D21">
-        <v>1722</v>
+        <v>1651</v>
       </c>
       <c r="E21">
-        <v>-8.99</v>
+        <v>-13.47</v>
       </c>
     </row>
     <row r="22">
@@ -857,14 +857,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D22">
-        <v>1767</v>
+        <v>1976</v>
       </c>
       <c r="E22">
-        <v>-10.49</v>
+        <v>-8.390000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -880,14 +880,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D23">
-        <v>1335</v>
+        <v>1652</v>
       </c>
       <c r="E23">
-        <v>-17.08</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="24">
@@ -903,14 +903,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D24">
-        <v>2719</v>
+        <v>3103</v>
       </c>
       <c r="E24">
-        <v>-1.24</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="25">
@@ -926,14 +926,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D25">
-        <v>4297</v>
+        <v>4505</v>
       </c>
       <c r="E25">
-        <v>12.69</v>
+        <v>24.62</v>
       </c>
     </row>
     <row r="26">
@@ -949,14 +949,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D26">
-        <v>812</v>
+        <v>1041</v>
       </c>
       <c r="E26">
-        <v>-2.99</v>
+        <v>19.79</v>
       </c>
     </row>
     <row r="27">
@@ -972,14 +972,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D27">
-        <v>1959</v>
+        <v>1897</v>
       </c>
       <c r="E27">
-        <v>-13.13</v>
+        <v>-18.97</v>
       </c>
     </row>
     <row r="28">
@@ -995,14 +995,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D28">
-        <v>2099</v>
+        <v>1948</v>
       </c>
       <c r="E28">
-        <v>25.91</v>
+        <v>16.09</v>
       </c>
     </row>
     <row r="29">
@@ -1018,14 +1018,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D29">
-        <v>1679</v>
+        <v>1939</v>
       </c>
       <c r="E29">
-        <v>-2.5</v>
+        <v>17.44</v>
       </c>
     </row>
     <row r="30">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D30">
-        <v>1604</v>
+        <v>1444</v>
       </c>
       <c r="E30">
-        <v>-9.220000000000001</v>
+        <v>-26.92</v>
       </c>
     </row>
     <row r="31">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D31">
-        <v>1478</v>
+        <v>1441</v>
       </c>
       <c r="E31">
-        <v>10.71</v>
+        <v>-12.77</v>
       </c>
     </row>
     <row r="32">
@@ -1087,14 +1087,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D32">
-        <v>2869</v>
+        <v>2615</v>
       </c>
       <c r="E32">
-        <v>5.52</v>
+        <v>-15.73</v>
       </c>
     </row>
     <row r="33">
@@ -1110,14 +1110,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D33">
-        <v>3791</v>
+        <v>3502</v>
       </c>
       <c r="E33">
-        <v>-11.78</v>
+        <v>-22.26</v>
       </c>
     </row>
     <row r="34">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D34">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="E34">
-        <v>14.29</v>
+        <v>-10.57</v>
       </c>
     </row>
     <row r="35">
@@ -1156,14 +1156,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D35">
-        <v>1806</v>
+        <v>2012</v>
       </c>
       <c r="E35">
-        <v>-7.81</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="36">
@@ -1179,14 +1179,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D36">
-        <v>1759</v>
+        <v>1484</v>
       </c>
       <c r="E36">
-        <v>-16.2</v>
+        <v>-23.82</v>
       </c>
     </row>
     <row r="37">
@@ -1202,14 +1202,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D37">
-        <v>1709</v>
+        <v>1674</v>
       </c>
       <c r="E37">
-        <v>1.79</v>
+        <v>-13.67</v>
       </c>
     </row>
     <row r="38">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D38">
-        <v>1874</v>
+        <v>1878</v>
       </c>
       <c r="E38">
-        <v>16.83</v>
+        <v>30.06</v>
       </c>
     </row>
     <row r="39">
@@ -1248,14 +1248,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D39">
-        <v>1578</v>
+        <v>1468</v>
       </c>
       <c r="E39">
-        <v>6.77</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="40">
@@ -1271,14 +1271,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D40">
-        <v>2773</v>
+        <v>2682</v>
       </c>
       <c r="E40">
-        <v>-3.35</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="41">
@@ -1294,14 +1294,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D41">
-        <v>3853</v>
+        <v>3772</v>
       </c>
       <c r="E41">
-        <v>1.64</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="42">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D42">
-        <v>730</v>
+        <v>781</v>
       </c>
       <c r="E42">
-        <v>-21.34</v>
+        <v>-16.11</v>
       </c>
     </row>
     <row r="43">
@@ -1340,14 +1340,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D43">
-        <v>1810</v>
+        <v>1742</v>
       </c>
       <c r="E43">
-        <v>0.22</v>
+        <v>-13.42</v>
       </c>
     </row>
     <row r="44">
@@ -1363,14 +1363,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D44">
-        <v>1531</v>
+        <v>1461</v>
       </c>
       <c r="E44">
-        <v>-12.96</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="45">
@@ -1386,14 +1386,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D45">
-        <v>1553</v>
+        <v>1663</v>
       </c>
       <c r="E45">
-        <v>-9.130000000000001</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="46">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D46">
-        <v>1963</v>
+        <v>1779</v>
       </c>
       <c r="E46">
-        <v>4.75</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="47">
@@ -1432,14 +1432,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D47">
-        <v>1264</v>
+        <v>1384</v>
       </c>
       <c r="E47">
-        <v>-19.9</v>
+        <v>-5.72</v>
       </c>
     </row>
     <row r="48">
@@ -1455,14 +1455,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D48">
-        <v>2912</v>
+        <v>2336</v>
       </c>
       <c r="E48">
-        <v>5.01</v>
+        <v>-12.9</v>
       </c>
     </row>
     <row r="49">
@@ -1478,14 +1478,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D49">
-        <v>3711</v>
+        <v>3730</v>
       </c>
       <c r="E49">
-        <v>-3.69</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="50">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D50">
-        <v>778</v>
+        <v>811</v>
       </c>
       <c r="E50">
-        <v>6.58</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="51">
@@ -1524,14 +1524,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D51">
-        <v>1827</v>
+        <v>1760</v>
       </c>
       <c r="E51">
-        <v>0.9399999999999999</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="52">
@@ -1547,14 +1547,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D52">
-        <v>1562</v>
+        <v>1518</v>
       </c>
       <c r="E52">
-        <v>2.02</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="53">
@@ -1570,14 +1570,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D53">
-        <v>2239</v>
+        <v>2084</v>
       </c>
       <c r="E53">
-        <v>44.17</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="54">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D54">
-        <v>1760</v>
+        <v>1625</v>
       </c>
       <c r="E54">
-        <v>-10.34</v>
+        <v>-8.66</v>
       </c>
     </row>
     <row r="55">
@@ -1616,14 +1616,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D55">
-        <v>1694</v>
+        <v>1632</v>
       </c>
       <c r="E55">
-        <v>34.02</v>
+        <v>17.92</v>
       </c>
     </row>
     <row r="56">
@@ -1639,14 +1639,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D56">
-        <v>2250</v>
+        <v>3082</v>
       </c>
       <c r="E56">
-        <v>-22.73</v>
+        <v>31.93</v>
       </c>
     </row>
     <row r="57">
@@ -1662,14 +1662,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D57">
-        <v>3489</v>
+        <v>3896</v>
       </c>
       <c r="E57">
-        <v>-5.98</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="58">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D58">
-        <v>833</v>
+        <v>855</v>
       </c>
       <c r="E58">
-        <v>7.07</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="59">
@@ -1708,14 +1708,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D59">
-        <v>2303</v>
+        <v>1974</v>
       </c>
       <c r="E59">
-        <v>26.05</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="60">
@@ -1731,14 +1731,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D60">
-        <v>1322</v>
+        <v>1694</v>
       </c>
       <c r="E60">
-        <v>-15.36</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="61">
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D61">
-        <v>1625</v>
+        <v>1419</v>
       </c>
       <c r="E61">
-        <v>-27.42</v>
+        <v>-31.91</v>
       </c>
     </row>
     <row r="62">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D62">
-        <v>1510</v>
+        <v>1797</v>
       </c>
       <c r="E62">
-        <v>-14.2</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="63">
@@ -1800,14 +1800,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D63">
-        <v>1227</v>
+        <v>1175</v>
       </c>
       <c r="E63">
-        <v>-27.57</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="64">
@@ -1823,14 +1823,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D64">
-        <v>2398</v>
+        <v>2473</v>
       </c>
       <c r="E64">
-        <v>6.58</v>
+        <v>-19.76</v>
       </c>
     </row>
     <row r="65">
@@ -1846,14 +1846,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D65">
-        <v>3887</v>
+        <v>3964</v>
       </c>
       <c r="E65">
-        <v>11.41</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="66">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D66">
-        <v>902</v>
+        <v>966</v>
       </c>
       <c r="E66">
-        <v>8.279999999999999</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="67">
@@ -1892,14 +1892,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D67">
-        <v>1874</v>
+        <v>2098</v>
       </c>
       <c r="E67">
-        <v>-18.63</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="68">
@@ -1915,14 +1915,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D68">
-        <v>1374</v>
+        <v>1392</v>
       </c>
       <c r="E68">
-        <v>3.93</v>
+        <v>-17.83</v>
       </c>
     </row>
     <row r="69">
@@ -1938,14 +1938,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D69">
-        <v>1674</v>
+        <v>1557</v>
       </c>
       <c r="E69">
-        <v>3.02</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="70">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D70">
-        <v>1739</v>
+        <v>1612</v>
       </c>
       <c r="E70">
-        <v>15.17</v>
+        <v>-10.29</v>
       </c>
     </row>
     <row r="71">
@@ -1984,14 +1984,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D71">
-        <v>1186</v>
+        <v>1124</v>
       </c>
       <c r="E71">
-        <v>-3.34</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="72">
@@ -2007,14 +2007,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D72">
-        <v>2885</v>
+        <v>2653</v>
       </c>
       <c r="E72">
-        <v>20.31</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="73">
@@ -2030,14 +2030,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D73">
-        <v>3372</v>
+        <v>3659</v>
       </c>
       <c r="E73">
-        <v>-13.25</v>
+        <v>-7.69</v>
       </c>
     </row>
     <row r="74">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D74">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="E74">
-        <v>-13.86</v>
+        <v>-18.53</v>
       </c>
     </row>
     <row r="75">
@@ -2076,14 +2076,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D75">
-        <v>2117</v>
+        <v>2083</v>
       </c>
       <c r="E75">
-        <v>12.97</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="76">
@@ -2099,14 +2099,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D76">
-        <v>1446</v>
+        <v>1541</v>
       </c>
       <c r="E76">
-        <v>5.24</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="77">
@@ -2122,14 +2122,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D77">
-        <v>1590</v>
+        <v>1702</v>
       </c>
       <c r="E77">
-        <v>-5.02</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="78">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D78">
-        <v>1815</v>
+        <v>1899</v>
       </c>
       <c r="E78">
-        <v>4.37</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="79">
@@ -2168,14 +2168,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D79">
-        <v>1246</v>
+        <v>1113</v>
       </c>
       <c r="E79">
-        <v>5.06</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="80">
@@ -2191,14 +2191,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D80">
-        <v>2646</v>
+        <v>2322</v>
       </c>
       <c r="E80">
-        <v>-8.279999999999999</v>
+        <v>-12.48</v>
       </c>
     </row>
     <row r="81">
@@ -2214,14 +2214,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D81">
-        <v>3545</v>
+        <v>3391</v>
       </c>
       <c r="E81">
-        <v>5.13</v>
+        <v>-7.32</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t14.1.xlsx
+++ b/Data/t14.1.xlsx
@@ -397,14 +397,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D2">
-        <v>887</v>
+        <v>920</v>
       </c>
       <c r="E2">
-        <v>3.26</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="3">
@@ -420,14 +420,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D3">
-        <v>2174</v>
+        <v>2318</v>
       </c>
       <c r="E3">
-        <v>19.12</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="4">
@@ -443,14 +443,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D4">
-        <v>1757</v>
+        <v>1888</v>
       </c>
       <c r="E4">
-        <v>-20.39</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="5">
@@ -466,14 +466,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D5">
-        <v>1937</v>
+        <v>1849</v>
       </c>
       <c r="E5">
-        <v>-4.11</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="6">
@@ -489,14 +489,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D6">
-        <v>2441</v>
+        <v>2012</v>
       </c>
       <c r="E6">
-        <v>18.38</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="7">
@@ -512,14 +512,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D7">
-        <v>1605</v>
+        <v>1502</v>
       </c>
       <c r="E7">
-        <v>5.04</v>
+        <v>-9.08</v>
       </c>
     </row>
     <row r="8">
@@ -535,14 +535,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D8">
-        <v>3050</v>
+        <v>2941</v>
       </c>
       <c r="E8">
-        <v>10.27</v>
+        <v>-12.63</v>
       </c>
     </row>
     <row r="9">
@@ -558,14 +558,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D9">
-        <v>4010</v>
+        <v>3954</v>
       </c>
       <c r="E9">
-        <v>7.42</v>
+        <v>-9.56</v>
       </c>
     </row>
     <row r="10">
@@ -581,14 +581,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D10">
-        <v>824</v>
+        <v>837</v>
       </c>
       <c r="E10">
-        <v>-7.1</v>
+        <v>-9.02</v>
       </c>
     </row>
     <row r="11">
@@ -604,14 +604,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D11">
-        <v>2062</v>
+        <v>2352</v>
       </c>
       <c r="E11">
-        <v>-5.15</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="12">
@@ -627,14 +627,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D12">
-        <v>1613</v>
+        <v>1779</v>
       </c>
       <c r="E12">
-        <v>-8.199999999999999</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="13">
@@ -650,14 +650,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D13">
-        <v>1908</v>
+        <v>1705</v>
       </c>
       <c r="E13">
-        <v>-1.5</v>
+        <v>-7.79</v>
       </c>
     </row>
     <row r="14">
@@ -673,14 +673,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D14">
-        <v>2157</v>
+        <v>1796</v>
       </c>
       <c r="E14">
-        <v>-11.63</v>
+        <v>-10.74</v>
       </c>
     </row>
     <row r="15">
@@ -696,14 +696,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D15">
-        <v>1315</v>
+        <v>1453</v>
       </c>
       <c r="E15">
-        <v>-18.07</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="16">
@@ -719,14 +719,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D16">
-        <v>2823</v>
+        <v>3199</v>
       </c>
       <c r="E16">
-        <v>-7.44</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="17">
@@ -742,14 +742,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D17">
-        <v>3615</v>
+        <v>3854</v>
       </c>
       <c r="E17">
-        <v>-9.85</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="18">
@@ -765,14 +765,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D18">
-        <v>869</v>
+        <v>820</v>
       </c>
       <c r="E18">
-        <v>5.46</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="19">
@@ -788,14 +788,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D19">
-        <v>2341</v>
+        <v>2887</v>
       </c>
       <c r="E19">
-        <v>13.53</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="20">
@@ -811,14 +811,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D20">
-        <v>1678</v>
+        <v>1715</v>
       </c>
       <c r="E20">
-        <v>4.03</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="21">
@@ -834,14 +834,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D21">
-        <v>1651</v>
+        <v>1684</v>
       </c>
       <c r="E21">
-        <v>-13.47</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="22">
@@ -857,14 +857,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D22">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="E22">
-        <v>-8.390000000000001</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="23">
@@ -880,14 +880,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D23">
-        <v>1652</v>
+        <v>1437</v>
       </c>
       <c r="E23">
-        <v>25.63</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="24">
@@ -903,14 +903,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D24">
-        <v>3103</v>
+        <v>3125</v>
       </c>
       <c r="E24">
-        <v>9.92</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="25">
@@ -926,14 +926,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D25">
-        <v>4505</v>
+        <v>4470</v>
       </c>
       <c r="E25">
-        <v>24.62</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="26">
@@ -949,14 +949,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D26">
-        <v>1041</v>
+        <v>935</v>
       </c>
       <c r="E26">
-        <v>19.79</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="27">
@@ -972,14 +972,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D27">
-        <v>1897</v>
+        <v>2110</v>
       </c>
       <c r="E27">
-        <v>-18.97</v>
+        <v>-26.91</v>
       </c>
     </row>
     <row r="28">
@@ -995,14 +995,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D28">
-        <v>1948</v>
+        <v>1838</v>
       </c>
       <c r="E28">
-        <v>16.09</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="29">
@@ -1018,14 +1018,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D29">
-        <v>1939</v>
+        <v>1761</v>
       </c>
       <c r="E29">
-        <v>17.44</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="30">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D30">
-        <v>1444</v>
+        <v>1765</v>
       </c>
       <c r="E30">
-        <v>-26.92</v>
+        <v>-10.27</v>
       </c>
     </row>
     <row r="31">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D31">
-        <v>1441</v>
+        <v>1306</v>
       </c>
       <c r="E31">
-        <v>-12.77</v>
+        <v>-9.119999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1087,14 +1087,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D32">
-        <v>2615</v>
+        <v>3235</v>
       </c>
       <c r="E32">
-        <v>-15.73</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="33">
@@ -1110,14 +1110,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D33">
-        <v>3502</v>
+        <v>3965</v>
       </c>
       <c r="E33">
-        <v>-22.26</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="34">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D34">
-        <v>931</v>
+        <v>777</v>
       </c>
       <c r="E34">
-        <v>-10.57</v>
+        <v>-16.9</v>
       </c>
     </row>
     <row r="35">
@@ -1156,14 +1156,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D35">
-        <v>2012</v>
+        <v>1884</v>
       </c>
       <c r="E35">
-        <v>6.06</v>
+        <v>-10.71</v>
       </c>
     </row>
     <row r="36">
@@ -1179,14 +1179,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D36">
-        <v>1484</v>
+        <v>1597</v>
       </c>
       <c r="E36">
-        <v>-23.82</v>
+        <v>-13.11</v>
       </c>
     </row>
     <row r="37">
@@ -1202,14 +1202,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D37">
-        <v>1674</v>
+        <v>1814</v>
       </c>
       <c r="E37">
-        <v>-13.67</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="38">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D38">
-        <v>1878</v>
+        <v>2038</v>
       </c>
       <c r="E38">
-        <v>30.06</v>
+        <v>15.47</v>
       </c>
     </row>
     <row r="39">
@@ -1248,14 +1248,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D39">
-        <v>1468</v>
+        <v>1641</v>
       </c>
       <c r="E39">
-        <v>1.87</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="40">
@@ -1271,14 +1271,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D40">
-        <v>2682</v>
+        <v>2675</v>
       </c>
       <c r="E40">
-        <v>2.56</v>
+        <v>-17.31</v>
       </c>
     </row>
     <row r="41">
@@ -1294,14 +1294,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D41">
-        <v>3772</v>
+        <v>3750</v>
       </c>
       <c r="E41">
-        <v>7.71</v>
+        <v>-5.42</v>
       </c>
     </row>
     <row r="42">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D42">
         <v>781</v>
       </c>
       <c r="E42">
-        <v>-16.11</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="43">
@@ -1340,14 +1340,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D43">
-        <v>1742</v>
+        <v>1760</v>
       </c>
       <c r="E43">
-        <v>-13.42</v>
+        <v>-6.58</v>
       </c>
     </row>
     <row r="44">
@@ -1363,14 +1363,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D44">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="E44">
-        <v>-1.55</v>
+        <v>-9.08</v>
       </c>
     </row>
     <row r="45">
@@ -1386,14 +1386,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D45">
-        <v>1663</v>
+        <v>1896</v>
       </c>
       <c r="E45">
-        <v>-0.66</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="46">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D46">
-        <v>1779</v>
+        <v>1797</v>
       </c>
       <c r="E46">
-        <v>-5.27</v>
+        <v>-11.83</v>
       </c>
     </row>
     <row r="47">
@@ -1432,14 +1432,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D47">
-        <v>1384</v>
+        <v>1613</v>
       </c>
       <c r="E47">
-        <v>-5.72</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="48">
@@ -1455,14 +1455,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D48">
-        <v>2336</v>
+        <v>2566</v>
       </c>
       <c r="E48">
-        <v>-12.9</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="49">
@@ -1478,14 +1478,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D49">
-        <v>3730</v>
+        <v>4024</v>
       </c>
       <c r="E49">
-        <v>-1.11</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="50">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D50">
-        <v>811</v>
+        <v>830</v>
       </c>
       <c r="E50">
-        <v>3.84</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="51">
@@ -1524,14 +1524,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D51">
-        <v>1760</v>
+        <v>1872</v>
       </c>
       <c r="E51">
-        <v>1.03</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="52">
@@ -1547,14 +1547,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D52">
-        <v>1518</v>
+        <v>1523</v>
       </c>
       <c r="E52">
-        <v>3.9</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="53">
@@ -1570,14 +1570,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D53">
-        <v>2084</v>
+        <v>1626</v>
       </c>
       <c r="E53">
-        <v>25.32</v>
+        <v>-14.24</v>
       </c>
     </row>
     <row r="54">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D54">
-        <v>1625</v>
+        <v>1789</v>
       </c>
       <c r="E54">
-        <v>-8.66</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="55">
@@ -1616,14 +1616,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D55">
-        <v>1632</v>
+        <v>1166</v>
       </c>
       <c r="E55">
-        <v>17.92</v>
+        <v>-27.71</v>
       </c>
     </row>
     <row r="56">
@@ -1639,14 +1639,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D56">
-        <v>3082</v>
+        <v>2939</v>
       </c>
       <c r="E56">
-        <v>31.93</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="57">
@@ -1662,14 +1662,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D57">
-        <v>3896</v>
+        <v>3795</v>
       </c>
       <c r="E57">
-        <v>4.45</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="58">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D58">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="E58">
-        <v>5.43</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="59">
@@ -1708,14 +1708,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D59">
-        <v>1974</v>
+        <v>1696</v>
       </c>
       <c r="E59">
-        <v>12.16</v>
+        <v>-9.4</v>
       </c>
     </row>
     <row r="60">
@@ -1731,14 +1731,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D60">
-        <v>1694</v>
+        <v>1315</v>
       </c>
       <c r="E60">
-        <v>11.59</v>
+        <v>-13.66</v>
       </c>
     </row>
     <row r="61">
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D61">
-        <v>1419</v>
+        <v>1500</v>
       </c>
       <c r="E61">
-        <v>-31.91</v>
+        <v>-7.75</v>
       </c>
     </row>
     <row r="62">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D62">
-        <v>1797</v>
+        <v>1536</v>
       </c>
       <c r="E62">
-        <v>10.58</v>
+        <v>-14.14</v>
       </c>
     </row>
     <row r="63">
@@ -1800,14 +1800,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D63">
-        <v>1175</v>
+        <v>1304</v>
       </c>
       <c r="E63">
-        <v>-28</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="64">
@@ -1823,14 +1823,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D64">
-        <v>2473</v>
+        <v>2230</v>
       </c>
       <c r="E64">
-        <v>-19.76</v>
+        <v>-24.12</v>
       </c>
     </row>
     <row r="65">
@@ -1846,14 +1846,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D65">
-        <v>3964</v>
+        <v>3863</v>
       </c>
       <c r="E65">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="66">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D66">
-        <v>966</v>
+        <v>909</v>
       </c>
       <c r="E66">
-        <v>12.98</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="67">
@@ -1892,14 +1892,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D67">
-        <v>2098</v>
+        <v>2230</v>
       </c>
       <c r="E67">
-        <v>6.28</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="68">
@@ -1915,14 +1915,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D68">
-        <v>1392</v>
+        <v>1503</v>
       </c>
       <c r="E68">
-        <v>-17.83</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="69">
@@ -1938,14 +1938,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D69">
-        <v>1557</v>
+        <v>1687</v>
       </c>
       <c r="E69">
-        <v>9.73</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="70">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D70">
-        <v>1612</v>
+        <v>1867</v>
       </c>
       <c r="E70">
-        <v>-10.29</v>
+        <v>21.55</v>
       </c>
     </row>
     <row r="71">
@@ -1984,14 +1984,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D71">
-        <v>1124</v>
+        <v>1138</v>
       </c>
       <c r="E71">
-        <v>-4.34</v>
+        <v>-12.73</v>
       </c>
     </row>
     <row r="72">
@@ -2007,14 +2007,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D72">
-        <v>2653</v>
+        <v>2511</v>
       </c>
       <c r="E72">
-        <v>7.28</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="73">
@@ -2030,14 +2030,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D73">
-        <v>3659</v>
+        <v>3781</v>
       </c>
       <c r="E73">
-        <v>-7.69</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="74">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D74">
-        <v>787</v>
+        <v>850</v>
       </c>
       <c r="E74">
-        <v>-18.53</v>
+        <v>-6.49</v>
       </c>
     </row>
     <row r="75">
@@ -2076,14 +2076,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D75">
-        <v>2083</v>
+        <v>2016</v>
       </c>
       <c r="E75">
-        <v>-0.71</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="76">
@@ -2099,14 +2099,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D76">
-        <v>1541</v>
+        <v>1514</v>
       </c>
       <c r="E76">
-        <v>10.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="77">
@@ -2122,14 +2122,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D77">
-        <v>1702</v>
+        <v>1856</v>
       </c>
       <c r="E77">
-        <v>9.31</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="78">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D78">
-        <v>1899</v>
+        <v>2317</v>
       </c>
       <c r="E78">
-        <v>17.8</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="79">
@@ -2168,14 +2168,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D79">
-        <v>1113</v>
+        <v>1276</v>
       </c>
       <c r="E79">
-        <v>-0.98</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="80">
@@ -2191,14 +2191,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D80">
-        <v>2322</v>
+        <v>2384</v>
       </c>
       <c r="E80">
-        <v>-12.48</v>
+        <v>-5.06</v>
       </c>
     </row>
     <row r="81">
@@ -2214,14 +2214,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D81">
-        <v>3391</v>
+        <v>3584</v>
       </c>
       <c r="E81">
-        <v>-7.32</v>
+        <v>-5.21</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t14.1.xlsx
+++ b/Data/t14.1.xlsx
@@ -397,14 +397,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D2">
-        <v>920</v>
+        <v>889</v>
       </c>
       <c r="E2">
-        <v>10.05</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3">
@@ -420,14 +420,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D3">
-        <v>2318</v>
+        <v>2327</v>
       </c>
       <c r="E3">
-        <v>9.44</v>
+        <v>-14.86</v>
       </c>
     </row>
     <row r="4">
@@ -443,14 +443,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D4">
-        <v>1888</v>
+        <v>1857</v>
       </c>
       <c r="E4">
-        <v>-4.89</v>
+        <v>-20.51</v>
       </c>
     </row>
     <row r="5">
@@ -466,14 +466,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D5">
-        <v>1849</v>
+        <v>1857</v>
       </c>
       <c r="E5">
-        <v>1.15</v>
+        <v>-9.369999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -489,14 +489,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D6">
-        <v>2012</v>
+        <v>2174</v>
       </c>
       <c r="E6">
-        <v>3.34</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="7">
@@ -512,14 +512,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D7">
-        <v>1502</v>
+        <v>1450</v>
       </c>
       <c r="E7">
-        <v>-9.08</v>
+        <v>-15.65</v>
       </c>
     </row>
     <row r="8">
@@ -535,14 +535,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D8">
-        <v>2941</v>
+        <v>3109</v>
       </c>
       <c r="E8">
-        <v>-12.63</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="9">
@@ -558,14 +558,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D9">
-        <v>3954</v>
+        <v>4023</v>
       </c>
       <c r="E9">
-        <v>-9.56</v>
+        <v>-13.78</v>
       </c>
     </row>
     <row r="10">
@@ -581,14 +581,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D10">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="E10">
-        <v>-9.02</v>
+        <v>-8.44</v>
       </c>
     </row>
     <row r="11">
@@ -604,14 +604,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D11">
-        <v>2352</v>
+        <v>2441</v>
       </c>
       <c r="E11">
-        <v>1.47</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="12">
@@ -627,14 +627,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D12">
-        <v>1779</v>
+        <v>1665</v>
       </c>
       <c r="E12">
-        <v>-5.77</v>
+        <v>-10.34</v>
       </c>
     </row>
     <row r="13">
@@ -650,14 +650,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D13">
-        <v>1705</v>
+        <v>1910</v>
       </c>
       <c r="E13">
-        <v>-7.79</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="14">
@@ -673,14 +673,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D14">
-        <v>1796</v>
+        <v>2228</v>
       </c>
       <c r="E14">
-        <v>-10.74</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="15">
@@ -696,14 +696,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D15">
-        <v>1453</v>
+        <v>1565</v>
       </c>
       <c r="E15">
-        <v>-3.26</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="16">
@@ -719,14 +719,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D16">
-        <v>3199</v>
+        <v>2947</v>
       </c>
       <c r="E16">
-        <v>8.77</v>
+        <v>-5.21</v>
       </c>
     </row>
     <row r="17">
@@ -742,14 +742,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D17">
-        <v>3854</v>
+        <v>4558</v>
       </c>
       <c r="E17">
-        <v>-2.53</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="18">
@@ -765,14 +765,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D18">
-        <v>820</v>
+        <v>908</v>
       </c>
       <c r="E18">
-        <v>-2.03</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="19">
@@ -788,14 +788,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D19">
-        <v>2887</v>
+        <v>2177</v>
       </c>
       <c r="E19">
-        <v>22.75</v>
+        <v>-10.82</v>
       </c>
     </row>
     <row r="20">
@@ -811,14 +811,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D20">
-        <v>1715</v>
+        <v>1812</v>
       </c>
       <c r="E20">
-        <v>-3.6</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="21">
@@ -834,14 +834,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D21">
-        <v>1684</v>
+        <v>1779</v>
       </c>
       <c r="E21">
-        <v>-1.23</v>
+        <v>-6.86</v>
       </c>
     </row>
     <row r="22">
@@ -857,14 +857,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D22">
-        <v>1967</v>
+        <v>1869</v>
       </c>
       <c r="E22">
-        <v>9.52</v>
+        <v>-16.11</v>
       </c>
     </row>
     <row r="23">
@@ -880,14 +880,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D23">
-        <v>1437</v>
+        <v>1600</v>
       </c>
       <c r="E23">
-        <v>-1.1</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="24">
@@ -903,14 +903,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D24">
-        <v>3125</v>
+        <v>2833</v>
       </c>
       <c r="E24">
-        <v>-2.31</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="25">
@@ -926,14 +926,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D25">
-        <v>4470</v>
+        <v>4460</v>
       </c>
       <c r="E25">
-        <v>15.98</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="26">
@@ -949,14 +949,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D26">
-        <v>935</v>
+        <v>990</v>
       </c>
       <c r="E26">
-        <v>14.02</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -972,14 +972,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D27">
-        <v>2110</v>
+        <v>1820</v>
       </c>
       <c r="E27">
-        <v>-26.91</v>
+        <v>-16.4</v>
       </c>
     </row>
     <row r="28">
@@ -995,14 +995,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D28">
-        <v>1838</v>
+        <v>1645</v>
       </c>
       <c r="E28">
-        <v>7.17</v>
+        <v>-9.220000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -1018,14 +1018,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D29">
-        <v>1761</v>
+        <v>1956</v>
       </c>
       <c r="E29">
-        <v>4.57</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D30">
-        <v>1765</v>
+        <v>1549</v>
       </c>
       <c r="E30">
-        <v>-10.27</v>
+        <v>-17.12</v>
       </c>
     </row>
     <row r="31">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D31">
-        <v>1306</v>
+        <v>1491</v>
       </c>
       <c r="E31">
-        <v>-9.119999999999999</v>
+        <v>-6.81</v>
       </c>
     </row>
     <row r="32">
@@ -1087,14 +1087,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D32">
-        <v>3235</v>
+        <v>2704</v>
       </c>
       <c r="E32">
-        <v>3.52</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="33">
@@ -1110,14 +1110,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D33">
-        <v>3965</v>
+        <v>3865</v>
       </c>
       <c r="E33">
-        <v>-11.3</v>
+        <v>-13.34</v>
       </c>
     </row>
     <row r="34">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D34">
-        <v>777</v>
+        <v>759</v>
       </c>
       <c r="E34">
-        <v>-16.9</v>
+        <v>-23.33</v>
       </c>
     </row>
     <row r="35">
@@ -1156,14 +1156,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D35">
-        <v>1884</v>
+        <v>1660</v>
       </c>
       <c r="E35">
-        <v>-10.71</v>
+        <v>-8.789999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1179,14 +1179,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D36">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="E36">
-        <v>-13.11</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="37">
@@ -1202,14 +1202,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D37">
-        <v>1814</v>
+        <v>1716</v>
       </c>
       <c r="E37">
-        <v>3.01</v>
+        <v>-12.27</v>
       </c>
     </row>
     <row r="38">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D38">
-        <v>2038</v>
+        <v>1629</v>
       </c>
       <c r="E38">
-        <v>15.47</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="39">
@@ -1248,14 +1248,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D39">
-        <v>1641</v>
+        <v>1577</v>
       </c>
       <c r="E39">
-        <v>25.65</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="40">
@@ -1271,14 +1271,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D40">
-        <v>2675</v>
+        <v>3041</v>
       </c>
       <c r="E40">
-        <v>-17.31</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="41">
@@ -1294,14 +1294,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D41">
-        <v>3750</v>
+        <v>4002</v>
       </c>
       <c r="E41">
-        <v>-5.42</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="42">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D42">
-        <v>781</v>
+        <v>802</v>
       </c>
       <c r="E42">
-        <v>0.51</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="43">
@@ -1340,14 +1340,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D43">
-        <v>1760</v>
+        <v>2004</v>
       </c>
       <c r="E43">
-        <v>-6.58</v>
+        <v>20.72</v>
       </c>
     </row>
     <row r="44">
@@ -1363,14 +1363,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D44">
-        <v>1452</v>
+        <v>1574</v>
       </c>
       <c r="E44">
-        <v>-9.08</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="45">
@@ -1386,14 +1386,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D45">
-        <v>1896</v>
+        <v>1990</v>
       </c>
       <c r="E45">
-        <v>4.52</v>
+        <v>15.97</v>
       </c>
     </row>
     <row r="46">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D46">
-        <v>1797</v>
+        <v>1744</v>
       </c>
       <c r="E46">
-        <v>-11.83</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="47">
@@ -1432,14 +1432,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D47">
-        <v>1613</v>
+        <v>1787</v>
       </c>
       <c r="E47">
-        <v>-1.71</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="48">
@@ -1455,14 +1455,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D48">
-        <v>2566</v>
+        <v>2989</v>
       </c>
       <c r="E48">
-        <v>-4.07</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="49">
@@ -1478,14 +1478,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D49">
-        <v>4024</v>
+        <v>4004</v>
       </c>
       <c r="E49">
-        <v>7.31</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="50">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D50">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="E50">
-        <v>6.27</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="51">
@@ -1524,14 +1524,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D51">
-        <v>1872</v>
+        <v>2740</v>
       </c>
       <c r="E51">
-        <v>6.36</v>
+        <v>36.73</v>
       </c>
     </row>
     <row r="52">
@@ -1547,14 +1547,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D52">
-        <v>1523</v>
+        <v>1537</v>
       </c>
       <c r="E52">
-        <v>4.89</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="53">
@@ -1570,14 +1570,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D53">
-        <v>1626</v>
+        <v>1560</v>
       </c>
       <c r="E53">
-        <v>-14.24</v>
+        <v>-21.61</v>
       </c>
     </row>
     <row r="54">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D54">
-        <v>1789</v>
+        <v>1707</v>
       </c>
       <c r="E54">
-        <v>-0.45</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="55">
@@ -1616,14 +1616,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D55">
-        <v>1166</v>
+        <v>1280</v>
       </c>
       <c r="E55">
-        <v>-27.71</v>
+        <v>-28.37</v>
       </c>
     </row>
     <row r="56">
@@ -1639,14 +1639,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D56">
-        <v>2939</v>
+        <v>3353</v>
       </c>
       <c r="E56">
-        <v>14.54</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="57">
@@ -1662,14 +1662,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D57">
-        <v>3795</v>
+        <v>4241</v>
       </c>
       <c r="E57">
-        <v>-5.69</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="58">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D58">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="E58">
-        <v>1.45</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="59">
@@ -1708,14 +1708,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D59">
-        <v>1696</v>
+        <v>1941</v>
       </c>
       <c r="E59">
-        <v>-9.4</v>
+        <v>-29.16</v>
       </c>
     </row>
     <row r="60">
@@ -1731,14 +1731,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D60">
-        <v>1315</v>
+        <v>1258</v>
       </c>
       <c r="E60">
-        <v>-13.66</v>
+        <v>-18.15</v>
       </c>
     </row>
     <row r="61">
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D61">
-        <v>1500</v>
+        <v>1554</v>
       </c>
       <c r="E61">
-        <v>-7.75</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="62">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D62">
-        <v>1536</v>
+        <v>1478</v>
       </c>
       <c r="E62">
-        <v>-14.14</v>
+        <v>-13.42</v>
       </c>
     </row>
     <row r="63">
@@ -1800,14 +1800,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D63">
-        <v>1304</v>
+        <v>1192</v>
       </c>
       <c r="E63">
-        <v>11.84</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="64">
@@ -1823,14 +1823,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D64">
-        <v>2230</v>
+        <v>2734</v>
       </c>
       <c r="E64">
-        <v>-24.12</v>
+        <v>-18.46</v>
       </c>
     </row>
     <row r="65">
@@ -1846,14 +1846,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D65">
-        <v>3863</v>
+        <v>3691</v>
       </c>
       <c r="E65">
-        <v>1.79</v>
+        <v>-12.97</v>
       </c>
     </row>
     <row r="66">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D66">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="E66">
-        <v>7.96</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="67">
@@ -1892,14 +1892,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D67">
-        <v>2230</v>
+        <v>2292</v>
       </c>
       <c r="E67">
-        <v>31.49</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="68">
@@ -1915,14 +1915,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D68">
-        <v>1503</v>
+        <v>1416</v>
       </c>
       <c r="E68">
-        <v>14.3</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="69">
@@ -1938,14 +1938,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D69">
-        <v>1687</v>
+        <v>1666</v>
       </c>
       <c r="E69">
-        <v>12.47</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="70">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D70">
-        <v>1867</v>
+        <v>1938</v>
       </c>
       <c r="E70">
-        <v>21.55</v>
+        <v>31.12</v>
       </c>
     </row>
     <row r="71">
@@ -1984,14 +1984,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D71">
-        <v>1138</v>
+        <v>1163</v>
       </c>
       <c r="E71">
-        <v>-12.73</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="72">
@@ -2007,14 +2007,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D72">
-        <v>2511</v>
+        <v>2784</v>
       </c>
       <c r="E72">
-        <v>12.6</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="73">
@@ -2030,14 +2030,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D73">
-        <v>3781</v>
+        <v>3785</v>
       </c>
       <c r="E73">
-        <v>-2.12</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="74">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D74">
-        <v>850</v>
+        <v>893</v>
       </c>
       <c r="E74">
-        <v>-6.49</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="75">
@@ -2076,14 +2076,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D75">
-        <v>2016</v>
+        <v>1872</v>
       </c>
       <c r="E75">
-        <v>-9.6</v>
+        <v>-18.32</v>
       </c>
     </row>
     <row r="76">
@@ -2099,14 +2099,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D76">
-        <v>1514</v>
+        <v>1588</v>
       </c>
       <c r="E76">
-        <v>0.73</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="77">
@@ -2122,14 +2122,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D77">
-        <v>1856</v>
+        <v>2092</v>
       </c>
       <c r="E77">
-        <v>10.02</v>
+        <v>25.57</v>
       </c>
     </row>
     <row r="78">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D78">
-        <v>2317</v>
+        <v>2354</v>
       </c>
       <c r="E78">
-        <v>24.1</v>
+        <v>21.47</v>
       </c>
     </row>
     <row r="79">
@@ -2168,14 +2168,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D79">
-        <v>1276</v>
+        <v>1322</v>
       </c>
       <c r="E79">
-        <v>12.13</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="80">
@@ -2191,14 +2191,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D80">
-        <v>2384</v>
+        <v>2762</v>
       </c>
       <c r="E80">
-        <v>-5.06</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="81">
@@ -2214,14 +2214,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D81">
-        <v>3584</v>
+        <v>3737</v>
       </c>
       <c r="E81">
-        <v>-5.21</v>
+        <v>-1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t14.1.xlsx
+++ b/Data/t14.1.xlsx
@@ -397,14 +397,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D2">
-        <v>889</v>
+        <v>803</v>
       </c>
       <c r="E2">
-        <v>0.45</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="3">
@@ -420,14 +420,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D3">
-        <v>2327</v>
+        <v>2218</v>
       </c>
       <c r="E3">
-        <v>-14.86</v>
+        <v>-11.32</v>
       </c>
     </row>
     <row r="4">
@@ -443,14 +443,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D4">
-        <v>1857</v>
+        <v>1700</v>
       </c>
       <c r="E4">
-        <v>-20.51</v>
+        <v>-14.14</v>
       </c>
     </row>
     <row r="5">
@@ -466,14 +466,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D5">
-        <v>1857</v>
+        <v>1967</v>
       </c>
       <c r="E5">
-        <v>-9.369999999999999</v>
+        <v>-23.64</v>
       </c>
     </row>
     <row r="6">
@@ -489,14 +489,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D6">
-        <v>2174</v>
+        <v>2052</v>
       </c>
       <c r="E6">
-        <v>6.52</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="7">
@@ -512,14 +512,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D7">
-        <v>1450</v>
+        <v>1674</v>
       </c>
       <c r="E7">
-        <v>-15.65</v>
+        <v>15.37</v>
       </c>
     </row>
     <row r="8">
@@ -535,14 +535,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D8">
-        <v>3109</v>
+        <v>2862</v>
       </c>
       <c r="E8">
-        <v>3.12</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="9">
@@ -558,14 +558,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D9">
-        <v>4023</v>
+        <v>3965</v>
       </c>
       <c r="E9">
-        <v>-13.78</v>
+        <v>-5.19</v>
       </c>
     </row>
     <row r="10">
@@ -581,14 +581,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D10">
-        <v>814</v>
+        <v>870</v>
       </c>
       <c r="E10">
-        <v>-8.44</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="11">
@@ -604,14 +604,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D11">
-        <v>2441</v>
+        <v>2345</v>
       </c>
       <c r="E11">
-        <v>4.9</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="12">
@@ -627,14 +627,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D12">
-        <v>1665</v>
+        <v>1734</v>
       </c>
       <c r="E12">
-        <v>-10.34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -650,14 +650,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D13">
-        <v>1910</v>
+        <v>1790</v>
       </c>
       <c r="E13">
-        <v>2.85</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="14">
@@ -673,14 +673,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D14">
-        <v>2228</v>
+        <v>1838</v>
       </c>
       <c r="E14">
-        <v>2.48</v>
+        <v>-10.43</v>
       </c>
     </row>
     <row r="15">
@@ -696,14 +696,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D15">
-        <v>1565</v>
+        <v>1388</v>
       </c>
       <c r="E15">
-        <v>7.93</v>
+        <v>-17.08</v>
       </c>
     </row>
     <row r="16">
@@ -719,14 +719,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D16">
-        <v>2947</v>
+        <v>2828</v>
       </c>
       <c r="E16">
-        <v>-5.21</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="17">
@@ -742,14 +742,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D17">
-        <v>4558</v>
+        <v>4469</v>
       </c>
       <c r="E17">
-        <v>13.3</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="18">
@@ -765,14 +765,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D18">
-        <v>908</v>
+        <v>845</v>
       </c>
       <c r="E18">
-        <v>11.55</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="19">
@@ -788,14 +788,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D19">
-        <v>2177</v>
+        <v>2038</v>
       </c>
       <c r="E19">
-        <v>-10.82</v>
+        <v>-13.09</v>
       </c>
     </row>
     <row r="20">
@@ -811,14 +811,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D20">
-        <v>1812</v>
+        <v>2183</v>
       </c>
       <c r="E20">
-        <v>8.83</v>
+        <v>25.89</v>
       </c>
     </row>
     <row r="21">
@@ -834,14 +834,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D21">
-        <v>1779</v>
+        <v>1746</v>
       </c>
       <c r="E21">
-        <v>-6.86</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="22">
@@ -857,14 +857,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D22">
-        <v>1869</v>
+        <v>1668</v>
       </c>
       <c r="E22">
-        <v>-16.11</v>
+        <v>-9.25</v>
       </c>
     </row>
     <row r="23">
@@ -880,14 +880,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D23">
-        <v>1600</v>
+        <v>1537</v>
       </c>
       <c r="E23">
-        <v>2.24</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="24">
@@ -903,14 +903,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D24">
-        <v>2833</v>
+        <v>2984</v>
       </c>
       <c r="E24">
-        <v>-3.87</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="25">
@@ -926,14 +926,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D25">
-        <v>4460</v>
+        <v>3943</v>
       </c>
       <c r="E25">
-        <v>-2.15</v>
+        <v>-11.77</v>
       </c>
     </row>
     <row r="26">
@@ -949,14 +949,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D26">
-        <v>990</v>
+        <v>965</v>
       </c>
       <c r="E26">
-        <v>9.029999999999999</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="27">
@@ -972,14 +972,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D27">
-        <v>1820</v>
+        <v>1878</v>
       </c>
       <c r="E27">
-        <v>-16.4</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="28">
@@ -995,14 +995,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D28">
-        <v>1645</v>
+        <v>1829</v>
       </c>
       <c r="E28">
-        <v>-9.220000000000001</v>
+        <v>-16.22</v>
       </c>
     </row>
     <row r="29">
@@ -1018,14 +1018,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D29">
-        <v>1956</v>
+        <v>1777</v>
       </c>
       <c r="E29">
-        <v>9.949999999999999</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="30">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D30">
-        <v>1549</v>
+        <v>1948</v>
       </c>
       <c r="E30">
-        <v>-17.12</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="31">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D31">
-        <v>1491</v>
+        <v>1641</v>
       </c>
       <c r="E31">
-        <v>-6.81</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="32">
@@ -1087,14 +1087,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D32">
-        <v>2704</v>
+        <v>2884</v>
       </c>
       <c r="E32">
-        <v>-4.55</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="33">
@@ -1110,14 +1110,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D33">
-        <v>3865</v>
+        <v>4007</v>
       </c>
       <c r="E33">
-        <v>-13.34</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="34">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D34">
         <v>759</v>
       </c>
       <c r="E34">
-        <v>-23.33</v>
+        <v>-21.35</v>
       </c>
     </row>
     <row r="35">
@@ -1156,14 +1156,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D35">
-        <v>1660</v>
+        <v>1883</v>
       </c>
       <c r="E35">
-        <v>-8.789999999999999</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="36">
@@ -1179,14 +1179,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D36">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="E36">
-        <v>-3.28</v>
+        <v>-12.96</v>
       </c>
     </row>
     <row r="37">
@@ -1202,14 +1202,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D37">
-        <v>1716</v>
+        <v>1615</v>
       </c>
       <c r="E37">
-        <v>-12.27</v>
+        <v>-9.119999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D38">
-        <v>1629</v>
+        <v>2041</v>
       </c>
       <c r="E38">
-        <v>5.16</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="39">
@@ -1248,14 +1248,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D39">
-        <v>1577</v>
+        <v>1314</v>
       </c>
       <c r="E39">
-        <v>5.77</v>
+        <v>-19.93</v>
       </c>
     </row>
     <row r="40">
@@ -1271,14 +1271,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D40">
-        <v>3041</v>
+        <v>3029</v>
       </c>
       <c r="E40">
-        <v>12.46</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="41">
@@ -1294,14 +1294,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D41">
-        <v>4002</v>
+        <v>3859</v>
       </c>
       <c r="E41">
-        <v>3.54</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="42">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D42">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="E42">
-        <v>5.67</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="43">
@@ -1340,14 +1340,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D43">
-        <v>2004</v>
+        <v>1900</v>
       </c>
       <c r="E43">
-        <v>20.72</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="44">
@@ -1363,14 +1363,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D44">
-        <v>1574</v>
+        <v>1625</v>
       </c>
       <c r="E44">
-        <v>-1.07</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="45">
@@ -1386,14 +1386,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D45">
-        <v>1990</v>
+        <v>2329</v>
       </c>
       <c r="E45">
-        <v>15.97</v>
+        <v>44.21</v>
       </c>
     </row>
     <row r="46">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D46">
-        <v>1744</v>
+        <v>1830</v>
       </c>
       <c r="E46">
-        <v>7.06</v>
+        <v>-10.34</v>
       </c>
     </row>
     <row r="47">
@@ -1432,14 +1432,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D47">
-        <v>1787</v>
+        <v>1762</v>
       </c>
       <c r="E47">
-        <v>13.32</v>
+        <v>34.09</v>
       </c>
     </row>
     <row r="48">
@@ -1455,14 +1455,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D48">
-        <v>2989</v>
+        <v>2340</v>
       </c>
       <c r="E48">
-        <v>-1.71</v>
+        <v>-22.75</v>
       </c>
     </row>
     <row r="49">
@@ -1478,14 +1478,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D49">
-        <v>4004</v>
+        <v>3628</v>
       </c>
       <c r="E49">
-        <v>0.05</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="50">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D50">
-        <v>809</v>
+        <v>866</v>
       </c>
       <c r="E50">
-        <v>0.87</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="51">
@@ -1524,14 +1524,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D51">
-        <v>2740</v>
+        <v>2395</v>
       </c>
       <c r="E51">
-        <v>36.73</v>
+        <v>26.05</v>
       </c>
     </row>
     <row r="52">
@@ -1547,14 +1547,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D52">
-        <v>1537</v>
+        <v>1375</v>
       </c>
       <c r="E52">
-        <v>-2.35</v>
+        <v>-15.38</v>
       </c>
     </row>
     <row r="53">
@@ -1570,14 +1570,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D53">
-        <v>1560</v>
+        <v>1689</v>
       </c>
       <c r="E53">
-        <v>-21.61</v>
+        <v>-27.48</v>
       </c>
     </row>
     <row r="54">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D54">
-        <v>1707</v>
+        <v>1571</v>
       </c>
       <c r="E54">
-        <v>-2.12</v>
+        <v>-14.15</v>
       </c>
     </row>
     <row r="55">
@@ -1616,14 +1616,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D55">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="E55">
-        <v>-28.37</v>
+        <v>-27.64</v>
       </c>
     </row>
     <row r="56">
@@ -1639,14 +1639,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D56">
-        <v>3353</v>
+        <v>2494</v>
       </c>
       <c r="E56">
-        <v>12.18</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="57">
@@ -1662,14 +1662,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D57">
-        <v>4241</v>
+        <v>4043</v>
       </c>
       <c r="E57">
-        <v>5.92</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="58">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D58">
-        <v>831</v>
+        <v>938</v>
       </c>
       <c r="E58">
-        <v>2.72</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="59">
@@ -1708,14 +1708,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D59">
-        <v>1941</v>
+        <v>1948</v>
       </c>
       <c r="E59">
-        <v>-29.16</v>
+        <v>-18.66</v>
       </c>
     </row>
     <row r="60">
@@ -1731,14 +1731,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D60">
-        <v>1258</v>
+        <v>1429</v>
       </c>
       <c r="E60">
-        <v>-18.15</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="61">
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D61">
-        <v>1554</v>
+        <v>1741</v>
       </c>
       <c r="E61">
-        <v>-0.38</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="62">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D62">
-        <v>1478</v>
+        <v>1809</v>
       </c>
       <c r="E62">
-        <v>-13.42</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="63">
@@ -1800,14 +1800,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D63">
-        <v>1192</v>
+        <v>1233</v>
       </c>
       <c r="E63">
-        <v>-6.87</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="64">
@@ -1823,14 +1823,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D64">
-        <v>2734</v>
+        <v>3000</v>
       </c>
       <c r="E64">
-        <v>-18.46</v>
+        <v>20.29</v>
       </c>
     </row>
     <row r="65">
@@ -1846,14 +1846,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D65">
-        <v>3691</v>
+        <v>3507</v>
       </c>
       <c r="E65">
-        <v>-12.97</v>
+        <v>-13.26</v>
       </c>
     </row>
     <row r="66">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D66">
-        <v>901</v>
+        <v>808</v>
       </c>
       <c r="E66">
-        <v>8.42</v>
+        <v>-13.86</v>
       </c>
     </row>
     <row r="67">
@@ -1892,14 +1892,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D67">
-        <v>2292</v>
+        <v>2201</v>
       </c>
       <c r="E67">
-        <v>18.08</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="68">
@@ -1915,14 +1915,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D68">
-        <v>1416</v>
+        <v>1503</v>
       </c>
       <c r="E68">
-        <v>12.56</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="69">
@@ -1938,14 +1938,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D69">
-        <v>1666</v>
+        <v>1654</v>
       </c>
       <c r="E69">
-        <v>7.21</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="70">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D70">
-        <v>1938</v>
+        <v>1887</v>
       </c>
       <c r="E70">
-        <v>31.12</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="71">
@@ -1984,14 +1984,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D71">
-        <v>1163</v>
+        <v>1296</v>
       </c>
       <c r="E71">
-        <v>-2.43</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="72">
@@ -2007,14 +2007,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D72">
-        <v>2784</v>
+        <v>2751</v>
       </c>
       <c r="E72">
-        <v>1.83</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="73">
@@ -2030,14 +2030,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D73">
-        <v>3785</v>
+        <v>3686</v>
       </c>
       <c r="E73">
-        <v>2.55</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="74">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D74">
-        <v>893</v>
+        <v>933</v>
       </c>
       <c r="E74">
-        <v>-0.89</v>
+        <v>15.47</v>
       </c>
     </row>
     <row r="75">
@@ -2076,14 +2076,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D75">
-        <v>1872</v>
+        <v>1831</v>
       </c>
       <c r="E75">
-        <v>-18.32</v>
+        <v>-16.81</v>
       </c>
     </row>
     <row r="76">
@@ -2099,14 +2099,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D76">
-        <v>1588</v>
+        <v>1743</v>
       </c>
       <c r="E76">
-        <v>12.15</v>
+        <v>15.97</v>
       </c>
     </row>
     <row r="77">
@@ -2122,14 +2122,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D77">
-        <v>2092</v>
+        <v>2102</v>
       </c>
       <c r="E77">
-        <v>25.57</v>
+        <v>27.09</v>
       </c>
     </row>
     <row r="78">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D78">
-        <v>2354</v>
+        <v>2067</v>
       </c>
       <c r="E78">
-        <v>21.47</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -2168,14 +2168,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D79">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="E79">
-        <v>13.67</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="80">
@@ -2191,14 +2191,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D80">
-        <v>2762</v>
+        <v>2664</v>
       </c>
       <c r="E80">
-        <v>-0.79</v>
+        <v>-3.16</v>
       </c>
     </row>
     <row r="81">
@@ -2214,14 +2214,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D81">
-        <v>3737</v>
+        <v>4104</v>
       </c>
       <c r="E81">
-        <v>-1.27</v>
+        <v>11.34</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t14.1.xlsx
+++ b/Data/t14.1.xlsx
@@ -1,46 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,14 +420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -387,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -397,20 +473,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>803</v>
-      </c>
-      <c r="E2">
-        <v>-3.95</v>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2723</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13.36459549823704</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -420,20 +496,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>2218</v>
-      </c>
-      <c r="E3">
-        <v>-11.32</v>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5017</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-7.962431974489226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -443,20 +519,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>1700</v>
-      </c>
-      <c r="E4">
-        <v>-14.14</v>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4061</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-11.02851832065899</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -466,20 +542,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>1967</v>
-      </c>
-      <c r="E5">
-        <v>-23.64</v>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4014</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-15.09253435870747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -489,20 +565,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>2052</v>
-      </c>
-      <c r="E6">
-        <v>1.74</v>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5044</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-15.29598948120566</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -512,20 +588,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>1674</v>
-      </c>
-      <c r="E7">
-        <v>15.37</v>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3491</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-13.89259694768673</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -535,20 +611,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>2862</v>
-      </c>
-      <c r="E8">
-        <v>-1.82</v>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7002</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-12.60236808028529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -558,20 +634,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>3965</v>
-      </c>
-      <c r="E9">
-        <v>-5.19</v>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7026</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-9.765522102078583</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -581,20 +657,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>870</v>
-      </c>
-      <c r="E10">
-        <v>8.34</v>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2620</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-3.786405571220341</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -604,20 +680,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>2345</v>
-      </c>
-      <c r="E11">
-        <v>5.73</v>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4498</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-10.36090516639435</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -627,20 +703,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>1734</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3817</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-6.02581706399673</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,20 +726,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>1790</v>
-      </c>
-      <c r="E13">
-        <v>-9</v>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3845</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-4.212107752188354</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -673,20 +749,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>1838</v>
-      </c>
-      <c r="E14">
-        <v>-10.43</v>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4753</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-5.768616672762161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -696,20 +772,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>1388</v>
-      </c>
-      <c r="E15">
-        <v>-17.08</v>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3180</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-8.897376888560816</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -719,20 +795,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>2828</v>
-      </c>
-      <c r="E16">
-        <v>-1.19</v>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6792</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-3.007052266267096</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -742,20 +818,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>4469</v>
-      </c>
-      <c r="E17">
-        <v>12.71</v>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>6700</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-4.646301647931594</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -765,20 +841,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>845</v>
-      </c>
-      <c r="E18">
-        <v>-2.87</v>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2617</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.1065950652653358</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -788,20 +864,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>2038</v>
-      </c>
-      <c r="E19">
-        <v>-13.09</v>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4607</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.435344277645446</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -811,20 +887,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>2183</v>
-      </c>
-      <c r="E20">
-        <v>25.89</v>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3622</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-5.095634313109287</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -834,20 +910,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>1746</v>
-      </c>
-      <c r="E21">
-        <v>-2.46</v>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3730</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-2.975723492521432</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -857,20 +933,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>1668</v>
-      </c>
-      <c r="E22">
-        <v>-9.25</v>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>4528</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-4.746830341629471</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -880,20 +956,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>1537</v>
-      </c>
-      <c r="E23">
-        <v>10.73</v>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2922</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-8.130865365283334</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -903,20 +979,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>2984</v>
-      </c>
-      <c r="E24">
-        <v>5.52</v>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>6589</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-2.990623555528649</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -926,20 +1002,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>3943</v>
-      </c>
-      <c r="E25">
-        <v>-11.77</v>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>6576</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.849844891537022</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -949,20 +1025,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>965</v>
-      </c>
-      <c r="E26">
-        <v>14.2</v>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2548</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-2.652839432489129</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -972,20 +1048,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>1878</v>
-      </c>
-      <c r="E27">
-        <v>-7.85</v>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4414</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-4.184460105666021</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -995,20 +1071,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>1829</v>
-      </c>
-      <c r="E28">
-        <v>-16.22</v>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3380</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-6.68498239196439</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1018,20 +1094,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>1777</v>
-      </c>
-      <c r="E29">
-        <v>1.78</v>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3547</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-4.916445271977099</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1041,20 +1117,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>1948</v>
-      </c>
-      <c r="E30">
-        <v>16.79</v>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4314</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-4.717219252948146</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1064,20 +1140,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>1641</v>
-      </c>
-      <c r="E31">
-        <v>6.77</v>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2903</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.656245643064457</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1087,20 +1163,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>2884</v>
-      </c>
-      <c r="E32">
-        <v>-3.35</v>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>6443</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-2.215850791538809</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1110,20 +1186,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>4007</v>
-      </c>
-      <c r="E33">
-        <v>1.62</v>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>6617</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6237633709847312</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1133,20 +1209,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>759</v>
-      </c>
-      <c r="E34">
-        <v>-21.35</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2485</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-2.451933752445501</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1156,20 +1232,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>1883</v>
-      </c>
-      <c r="E35">
-        <v>0.27</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>4311</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-2.344578708788825</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1179,20 +1255,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>1592</v>
-      </c>
-      <c r="E36">
-        <v>-12.96</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3220</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-4.720665044741034</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1202,20 +1278,20 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>1615</v>
-      </c>
-      <c r="E37">
-        <v>-9.119999999999999</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3431</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-3.262974239371708</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1225,20 +1301,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>2041</v>
-      </c>
-      <c r="E38">
-        <v>4.77</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>4100</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-4.963657777438335</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1248,20 +1324,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>1314</v>
-      </c>
-      <c r="E39">
-        <v>-19.93</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2768</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-4.634174955040926</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1271,20 +1347,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>3029</v>
-      </c>
-      <c r="E40">
-        <v>5.03</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>6122</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-4.977715482385204</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1294,20 +1370,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>3859</v>
-      </c>
-      <c r="E41">
-        <v>-3.69</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>6351</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-4.007352865501557</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1317,20 +1393,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>809</v>
-      </c>
-      <c r="E42">
-        <v>6.59</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2464</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.8280624132782521</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1340,20 +1416,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>1900</v>
-      </c>
-      <c r="E43">
-        <v>0.9</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>4325</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.3283893794886028</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1363,20 +1439,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>1625</v>
-      </c>
-      <c r="E44">
-        <v>2.07</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>3008</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-6.58230865520374</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1386,20 +1462,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>2329</v>
-      </c>
-      <c r="E45">
-        <v>44.21</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>3284</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-4.284988984988813</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1409,20 +1485,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>1830</v>
-      </c>
-      <c r="E46">
-        <v>-10.34</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>3633</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-11.39214458311004</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1432,20 +1508,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>1762</v>
-      </c>
-      <c r="E47">
-        <v>34.09</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-9.673516829155504</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1455,20 +1531,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>2340</v>
-      </c>
-      <c r="E48">
-        <v>-22.75</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>5912</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-3.425289057340097</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1478,20 +1554,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>3628</v>
-      </c>
-      <c r="E49">
-        <v>-5.99</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6224</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-2.010174089422767</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1501,20 +1577,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>866</v>
-      </c>
-      <c r="E50">
-        <v>7.05</v>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2107</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-14.50806461253442</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1524,20 +1600,20 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>2395</v>
-      </c>
-      <c r="E51">
-        <v>26.05</v>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>3302</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-23.65399563868147</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1547,20 +1623,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>1375</v>
-      </c>
-      <c r="E52">
-        <v>-15.38</v>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2635</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-12.41928996513653</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1570,20 +1646,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>1689</v>
-      </c>
-      <c r="E53">
-        <v>-27.48</v>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>2768</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-15.71193404818513</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1593,20 +1669,20 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>1571</v>
-      </c>
-      <c r="E54">
-        <v>-14.15</v>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>3302</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-9.109343841200046</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1616,20 +1692,20 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>1275</v>
-      </c>
-      <c r="E55">
-        <v>-27.64</v>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>2177</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-12.9463950508338</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1639,20 +1715,20 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>2494</v>
-      </c>
-      <c r="E56">
-        <v>6.58</v>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>4862</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-17.75617818418527</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1662,20 +1738,20 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>4043</v>
-      </c>
-      <c r="E57">
-        <v>11.44</v>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>4937</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-20.68037482983345</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1685,20 +1761,20 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D58">
-        <v>938</v>
-      </c>
-      <c r="E58">
-        <v>8.31</v>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2269</v>
+      </c>
+      <c r="E58" t="n">
+        <v>7.701108851771821</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1708,20 +1784,20 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D59">
-        <v>1948</v>
-      </c>
-      <c r="E59">
-        <v>-18.66</v>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>3309</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.2111261371857243</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1731,20 +1807,20 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D60">
-        <v>1429</v>
-      </c>
-      <c r="E60">
-        <v>3.93</v>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2819</v>
+      </c>
+      <c r="E60" t="n">
+        <v>6.977271611627245</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1754,20 +1830,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D61">
-        <v>1741</v>
-      </c>
-      <c r="E61">
-        <v>3.08</v>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2804</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.306151391111587</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1777,20 +1853,20 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D62">
-        <v>1809</v>
-      </c>
-      <c r="E62">
-        <v>15.15</v>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>3385</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.502994782683166</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1800,20 +1876,20 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D63">
-        <v>1233</v>
-      </c>
-      <c r="E63">
-        <v>-3.29</v>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2257</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.702222611681294</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1823,20 +1899,20 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D64">
-        <v>3000</v>
-      </c>
-      <c r="E64">
-        <v>20.29</v>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>5029</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.418255429744788</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1846,20 +1922,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D65">
-        <v>3507</v>
-      </c>
-      <c r="E65">
-        <v>-13.26</v>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>4858</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-1.603048372197136</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1869,20 +1945,20 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D66">
-        <v>808</v>
-      </c>
-      <c r="E66">
-        <v>-13.86</v>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>2194</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-3.30832533822718</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1892,20 +1968,20 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D67">
-        <v>2201</v>
-      </c>
-      <c r="E67">
-        <v>12.99</v>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>3343</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.032140339483845</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1915,20 +1991,20 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D68">
-        <v>1503</v>
-      </c>
-      <c r="E68">
-        <v>5.18</v>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>2616</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-7.206454010376628</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1938,20 +2014,20 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D69">
-        <v>1654</v>
-      </c>
-      <c r="E69">
-        <v>-5</v>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2831</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.9657790410997569</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1961,20 +2037,20 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D70">
-        <v>1887</v>
-      </c>
-      <c r="E70">
-        <v>4.31</v>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>3197</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-5.532099813410019</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1984,20 +2060,20 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D71">
-        <v>1296</v>
-      </c>
-      <c r="E71">
-        <v>5.11</v>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2236</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.9337258888277633</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2007,20 +2083,20 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D72">
-        <v>2751</v>
-      </c>
-      <c r="E72">
-        <v>-8.300000000000001</v>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>4860</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-3.353878132335597</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2030,20 +2106,20 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D73">
-        <v>3686</v>
-      </c>
-      <c r="E73">
-        <v>5.1</v>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>4791</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1.374126144044485</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2053,20 +2129,20 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D74">
-        <v>933</v>
-      </c>
-      <c r="E74">
-        <v>15.47</v>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>2082</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-5.109889336070572</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2076,20 +2152,20 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D75">
-        <v>1831</v>
-      </c>
-      <c r="E75">
-        <v>-16.81</v>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>3299</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-1.318156833080675</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2099,20 +2175,20 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D76">
-        <v>1743</v>
-      </c>
-      <c r="E76">
-        <v>15.97</v>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>2635</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.7440778324482311</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2122,20 +2198,20 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D77">
-        <v>2102</v>
-      </c>
-      <c r="E77">
-        <v>27.09</v>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2804</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.9708887587138282</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2145,20 +2221,20 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D78">
-        <v>2067</v>
-      </c>
-      <c r="E78">
-        <v>9.539999999999999</v>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>3270</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.272146154565458</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2168,20 +2244,20 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D79">
-        <v>1334</v>
-      </c>
-      <c r="E79">
-        <v>2.93</v>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>2255</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8475024358109984</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2191,20 +2267,20 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D80">
-        <v>2664</v>
-      </c>
-      <c r="E80">
-        <v>-3.16</v>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4868</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.1651391196733965</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2214,17 +2290,3697 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D81">
-        <v>4104</v>
-      </c>
-      <c r="E81">
-        <v>11.34</v>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>4641</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-3.126537087026704</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>1283</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-17.65513301948977</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>3025</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-16.29144918310254</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>2775</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-16.79833340335555</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>2854</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-16.53023488955935</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>3595</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-12.67609477675105</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2470</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-20.74813602799415</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>4916</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-12.86475529482465</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>5395</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-10.1699930923048</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1204</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-6.147725384388991</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2739</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-9.455201728867301</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>2599</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-6.344620113889954</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2770</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-2.946562529282892</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>3002</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-16.50302706904252</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2376</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-3.809183758184198</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>4716</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-4.071206890109935</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>5290</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-1.947597336000884</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1243</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.252995493143884</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>3102</v>
+      </c>
+      <c r="E99" t="n">
+        <v>13.27372395972359</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2741</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5.472516266308358</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2738</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-1.142413040952983</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>3082</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.669778123919686</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2132</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-10.27899908873964</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>4593</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-2.618049559941582</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>5100</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-3.600162647360339</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1175</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-5.513516259280237</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2731</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-11.95694207634427</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>2347</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-14.37674093440784</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>2580</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-5.796404619660911</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>2969</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-3.655521019356833</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>2142</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.5038397846341081</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>4748</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.391537001882083</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>5148</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.9484328808110787</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>1176</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.07452545948578582</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>2516</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-7.890923265937988</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>2105</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-10.32648351162602</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>2516</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-2.472742281581397</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>2759</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-7.094869263609571</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-5.561156710606396</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>4051</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-14.69646012533687</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>5182</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.6677962291334882</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1236</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5.126114964335549</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>2547</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.261116486584668</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>2139</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.623531773895848</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>2355</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-6.403258746234508</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>2551</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-7.516091936355207</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1807</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-10.69651553793615</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>4079</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.6902414883362518</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>4700</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-9.29951842667216</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>976</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-21.06179399059724</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>2152</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-15.51733064008177</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1760</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-17.71183399737801</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>2037</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-13.47727109265201</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>2259</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-11.46049669580558</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1621</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-10.29708009252714</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>3453</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-15.34265799753285</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>3802</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-19.11327763133602</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>1020</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.535182297295282</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>2054</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-4.551437609237807</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>1786</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.44820051741712</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>1943</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-4.607389418210439</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>2267</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.3575506519300831</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>1545</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-4.656714132708584</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>3198</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-7.37459478051441</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>3795</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-0.1897403015452714</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>1047</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.674567966099373</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>2099</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.166058804860294</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>1798</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.6908641919131542</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3.350392812357006</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>2158</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-4.787007635964602</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>1501</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-2.856808096575991</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>3265</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.105908950580071</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>3580</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-5.660199467695081</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>1094</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4.462710439472661</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>2111</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.5850917619807161</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1690</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-5.999094631162794</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>2056</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.361599105241075</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>2193</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.599539929382021</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1609</v>
+      </c>
+      <c r="E159" t="n">
+        <v>7.182154435579546</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>3282</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.5055355335793044</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>3705</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3.492043071637374</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>1406</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-16.23222487315936</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>3497</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-14.62067238148974</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>2748</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-17.08204648083198</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>3246</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-11.02984600056589</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>3674</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-20.48513039869849</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>2250</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-25.92555981875233</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>4815</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-16.08793072164759</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>6133</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-18.80698927483271</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>1399</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-0.5246605415571759</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>3730</v>
+      </c>
+      <c r="E171" t="n">
+        <v>6.668223066046974</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>2676</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-2.615747252091083</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>2644</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-18.55824374935762</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>3170</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-13.7259757450408</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>2642</v>
+      </c>
+      <c r="E175" t="n">
+        <v>17.40680009142728</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>4941</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2.606222733031216</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>7169</v>
+      </c>
+      <c r="E177" t="n">
+        <v>16.89592620443971</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>1607</v>
+      </c>
+      <c r="E178" t="n">
+        <v>14.89207372853651</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>2936</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-21.29157089371418</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>3020</v>
+      </c>
+      <c r="E180" t="n">
+        <v>12.84077364607867</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>3018</v>
+      </c>
+      <c r="E181" t="n">
+        <v>14.18237097780677</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>2260</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-28.6963652495768</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>2250</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-14.83433284350379</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>4045</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-18.12198697327576</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>5435</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-24.1961018163057</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>1395</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-13.22333620146095</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>2994</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.984324544968996</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>2223</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-26.38246433387885</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>2509</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-16.89275367561114</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>2826</v>
+      </c>
+      <c r="E190" t="n">
+        <v>25.02938303570568</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>2202</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-2.125531216195053</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>4002</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-1.063821278417754</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>5625</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3.510647249273613</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>1125</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-19.34153909182717</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>2506</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-16.29618447502986</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>2102</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-5.449088569661709</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>2384</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-4.979623797230259</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>2572</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-8.992799655003436</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-9.340109120800133</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>3339</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-16.56667837201178</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>5337</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-5.124815967845975</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>1119</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-0.5768090394207226</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>2417</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-3.558003564645762</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>2097</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-0.2521001183013682</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>2878</v>
+      </c>
+      <c r="E205" t="n">
+        <v>20.7490223647125</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>2227</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-13.40836658780894</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>2221</v>
+      </c>
+      <c r="E207" t="n">
+        <v>11.21904318274691</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>4207</v>
+      </c>
+      <c r="E208" t="n">
+        <v>26.00253412947115</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>5338</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.008299710610204514</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>1067</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-4.577600128497661</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>2435</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.7461452843015914</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>2122</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.206211118281364</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>1764</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-38.72881356964296</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>2228</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.02794848915363968</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>1475</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-33.59319553508311</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>3059</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-27.28544937257741</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>4889</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-8.402237903251642</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>1143</v>
+      </c>
+      <c r="E218" t="n">
+        <v>7.0669471962721</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>2456</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.8363653611933586</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>1655</v>
+      </c>
+      <c r="E220" t="n">
+        <v>-22.00781950131617</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E221" t="n">
+        <v>3.67344737984312</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>1914</v>
+      </c>
+      <c r="E222" t="n">
+        <v>-14.08485433216612</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>1319</v>
+      </c>
+      <c r="E223" t="n">
+        <v>-10.52625716828974</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>3083</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.7688364690664473</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>4263</v>
+      </c>
+      <c r="E225" t="n">
+        <v>-12.80420582981398</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>893</v>
+      </c>
+      <c r="E226" t="n">
+        <v>-21.84581830043239</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>2319</v>
+      </c>
+      <c r="E227" t="n">
+        <v>-5.569699115309601</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>1741</v>
+      </c>
+      <c r="E228" t="n">
+        <v>5.210900346517944</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>1892</v>
+      </c>
+      <c r="E229" t="n">
+        <v>3.495615301139599</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>2112</v>
+      </c>
+      <c r="E230" t="n">
+        <v>10.37226718986719</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>1257</v>
+      </c>
+      <c r="E231" t="n">
+        <v>-4.734884092772395</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>2632</v>
+      </c>
+      <c r="E232" t="n">
+        <v>-14.61802202363367</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>3791</v>
+      </c>
+      <c r="E233" t="n">
+        <v>-11.08107049116616</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>1068</v>
+      </c>
+      <c r="E234" t="n">
+        <v>19.57519952473095</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>2049</v>
+      </c>
+      <c r="E235" t="n">
+        <v>-11.63784641659215</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>1708</v>
+      </c>
+      <c r="E236" t="n">
+        <v>-1.909332431626598</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>2364</v>
+      </c>
+      <c r="E237" t="n">
+        <v>24.9337345639699</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>2515</v>
+      </c>
+      <c r="E238" t="n">
+        <v>19.06178661796964</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>1397</v>
+      </c>
+      <c r="E239" t="n">
+        <v>11.14416803571789</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>2842</v>
+      </c>
+      <c r="E240" t="n">
+        <v>7.965951657646864</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>4426</v>
+      </c>
+      <c r="E241" t="n">
+        <v>16.75955848491288</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/t14.1.xlsx
+++ b/Data/t14.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,14 +473,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2723</v>
+        <v>2859</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.36459549823704</v>
+        <v>-12.42005759132149</v>
       </c>
     </row>
     <row r="3">
@@ -496,14 +496,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5017</v>
+        <v>5276</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.962431974489226</v>
+        <v>-11.6847624130901</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +519,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4061</v>
+        <v>4188</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.02851832065899</v>
+        <v>-11.59138101152498</v>
       </c>
     </row>
     <row r="5">
@@ -542,14 +542,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4014</v>
+        <v>4322</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.09253435870747</v>
+        <v>-11.79588815420276</v>
       </c>
     </row>
     <row r="6">
@@ -565,14 +565,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5044</v>
+        <v>5330</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.29598948120566</v>
+        <v>-12.95340242857362</v>
       </c>
     </row>
     <row r="7">
@@ -588,14 +588,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3491</v>
+        <v>3747</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.89259694768673</v>
+        <v>-13.26715211325208</v>
       </c>
     </row>
     <row r="8">
@@ -611,14 +611,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7002</v>
+        <v>7301</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.60236808028529</v>
+        <v>-12.50687241603735</v>
       </c>
     </row>
     <row r="9">
@@ -634,14 +634,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7026</v>
+        <v>7393</v>
       </c>
       <c r="E9" t="n">
-        <v>-9.765522102078583</v>
+        <v>-9.30011142589332</v>
       </c>
     </row>
     <row r="10">
@@ -657,14 +657,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2620</v>
+        <v>2674</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.786405571220341</v>
+        <v>-6.458262316087571</v>
       </c>
     </row>
     <row r="11">
@@ -680,14 +680,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4498</v>
+        <v>4906</v>
       </c>
       <c r="E11" t="n">
-        <v>-10.36090516639435</v>
+        <v>-7.003158243448182</v>
       </c>
     </row>
     <row r="12">
@@ -703,14 +703,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3817</v>
+        <v>3883</v>
       </c>
       <c r="E12" t="n">
-        <v>-6.02581706399673</v>
+        <v>-7.285428162606622</v>
       </c>
     </row>
     <row r="13">
@@ -726,14 +726,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3845</v>
+        <v>4007</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.212107752188354</v>
+        <v>-7.279007891416478</v>
       </c>
     </row>
     <row r="14">
@@ -749,14 +749,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4753</v>
+        <v>4900</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.768616672762161</v>
+        <v>-8.068144893362927</v>
       </c>
     </row>
     <row r="15">
@@ -772,14 +772,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3180</v>
+        <v>3303</v>
       </c>
       <c r="E15" t="n">
-        <v>-8.897376888560816</v>
+        <v>-11.83244398234249</v>
       </c>
     </row>
     <row r="16">
@@ -795,14 +795,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6792</v>
+        <v>6959</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.007052266267096</v>
+        <v>-4.684469707371486</v>
       </c>
     </row>
     <row r="17">
@@ -818,14 +818,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6700</v>
+        <v>6922</v>
       </c>
       <c r="E17" t="n">
-        <v>-4.646301647931594</v>
+        <v>-6.377290278674219</v>
       </c>
     </row>
     <row r="18">
@@ -841,14 +841,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2617</v>
+        <v>2799</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1065950652653358</v>
+        <v>4.682676418469334</v>
       </c>
     </row>
     <row r="19">
@@ -864,14 +864,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4607</v>
+        <v>4785</v>
       </c>
       <c r="E19" t="n">
-        <v>2.435344277645446</v>
+        <v>-2.464052806615202</v>
       </c>
     </row>
     <row r="20">
@@ -887,14 +887,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3622</v>
+        <v>3769</v>
       </c>
       <c r="E20" t="n">
-        <v>-5.095634313109287</v>
+        <v>-2.940590061380266</v>
       </c>
     </row>
     <row r="21">
@@ -910,14 +910,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3730</v>
+        <v>3876</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.975723492521432</v>
+        <v>-3.276384383470521</v>
       </c>
     </row>
     <row r="22">
@@ -933,14 +933,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4528</v>
+        <v>4587</v>
       </c>
       <c r="E22" t="n">
-        <v>-4.746830341629471</v>
+        <v>-6.396965021796131</v>
       </c>
     </row>
     <row r="23">
@@ -956,14 +956,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2922</v>
+        <v>3138</v>
       </c>
       <c r="E23" t="n">
-        <v>-8.130865365283334</v>
+        <v>-5.005427586985878</v>
       </c>
     </row>
     <row r="24">
@@ -979,14 +979,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6589</v>
+        <v>6961</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.990623555528649</v>
+        <v>0.03657527886373746</v>
       </c>
     </row>
     <row r="25">
@@ -1002,14 +1002,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6576</v>
+        <v>6808</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.849844891537022</v>
+        <v>-1.644744443920421</v>
       </c>
     </row>
     <row r="26">
@@ -1025,14 +1025,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2548</v>
+        <v>2655</v>
       </c>
       <c r="E26" t="n">
-        <v>-2.652839432489129</v>
+        <v>-5.165860515967202</v>
       </c>
     </row>
     <row r="27">
@@ -1048,14 +1048,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4414</v>
+        <v>4729</v>
       </c>
       <c r="E27" t="n">
-        <v>-4.184460105666021</v>
+        <v>-1.183929642374271</v>
       </c>
     </row>
     <row r="28">
@@ -1071,14 +1071,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3380</v>
+        <v>3608</v>
       </c>
       <c r="E28" t="n">
-        <v>-6.68498239196439</v>
+        <v>-4.265016493530682</v>
       </c>
     </row>
     <row r="29">
@@ -1094,14 +1094,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3547</v>
+        <v>3737</v>
       </c>
       <c r="E29" t="n">
-        <v>-4.916445271977099</v>
+        <v>-3.572905071745391</v>
       </c>
     </row>
     <row r="30">
@@ -1117,14 +1117,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4314</v>
+        <v>4488</v>
       </c>
       <c r="E30" t="n">
-        <v>-4.717219252948146</v>
+        <v>-2.154697928621707</v>
       </c>
     </row>
     <row r="31">
@@ -1140,14 +1140,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2903</v>
+        <v>3029</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.656245643064457</v>
+        <v>-3.471595796974047</v>
       </c>
     </row>
     <row r="32">
@@ -1163,14 +1163,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6443</v>
+        <v>6671</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.215850791538809</v>
+        <v>-4.173303056761391</v>
       </c>
     </row>
     <row r="33">
@@ -1186,14 +1186,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6617</v>
+        <v>6833</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6237633709847312</v>
+        <v>0.3765672395531716</v>
       </c>
     </row>
     <row r="34">
@@ -1209,14 +1209,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2485</v>
+        <v>2517</v>
       </c>
       <c r="E34" t="n">
-        <v>-2.451933752445501</v>
+        <v>-5.176727590707497</v>
       </c>
     </row>
     <row r="35">
@@ -1232,14 +1232,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4311</v>
+        <v>4439</v>
       </c>
       <c r="E35" t="n">
-        <v>-2.344578708788825</v>
+        <v>-6.129381211950424</v>
       </c>
     </row>
     <row r="36">
@@ -1255,14 +1255,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3220</v>
+        <v>3501</v>
       </c>
       <c r="E36" t="n">
-        <v>-4.720665044741034</v>
+        <v>-2.971439100360485</v>
       </c>
     </row>
     <row r="37">
@@ -1278,14 +1278,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3431</v>
+        <v>3590</v>
       </c>
       <c r="E37" t="n">
-        <v>-3.262974239371708</v>
+        <v>-3.94221893543768</v>
       </c>
     </row>
     <row r="38">
@@ -1301,14 +1301,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4100</v>
+        <v>4273</v>
       </c>
       <c r="E38" t="n">
-        <v>-4.963657777438335</v>
+        <v>-4.779510696913181</v>
       </c>
     </row>
     <row r="39">
@@ -1324,14 +1324,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2768</v>
+        <v>2836</v>
       </c>
       <c r="E39" t="n">
-        <v>-4.634174955040926</v>
+        <v>-6.379316336333929</v>
       </c>
     </row>
     <row r="40">
@@ -1347,14 +1347,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6122</v>
+        <v>6313</v>
       </c>
       <c r="E40" t="n">
-        <v>-4.977715482385204</v>
+        <v>-5.359105391902785</v>
       </c>
     </row>
     <row r="41">
@@ -1370,14 +1370,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6351</v>
+        <v>6635</v>
       </c>
       <c r="E41" t="n">
-        <v>-4.007352865501557</v>
+        <v>-2.906564054070071</v>
       </c>
     </row>
     <row r="42">
@@ -1393,14 +1393,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2464</v>
+        <v>2598</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.8280624132782521</v>
+        <v>3.188160043597366</v>
       </c>
     </row>
     <row r="43">
@@ -1416,14 +1416,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4325</v>
+        <v>4806</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3283893794886028</v>
+        <v>8.274873472668487</v>
       </c>
     </row>
     <row r="44">
@@ -1439,14 +1439,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3008</v>
+        <v>3303</v>
       </c>
       <c r="E44" t="n">
-        <v>-6.58230865520374</v>
+        <v>-5.653174160348529</v>
       </c>
     </row>
     <row r="45">
@@ -1462,14 +1462,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3284</v>
+        <v>3652</v>
       </c>
       <c r="E45" t="n">
-        <v>-4.284988984988813</v>
+        <v>1.722556809716713</v>
       </c>
     </row>
     <row r="46">
@@ -1485,14 +1485,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3633</v>
+        <v>3973</v>
       </c>
       <c r="E46" t="n">
-        <v>-11.39214458311004</v>
+        <v>-7.032710650217022</v>
       </c>
     </row>
     <row r="47">
@@ -1508,14 +1508,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2500</v>
+        <v>2735</v>
       </c>
       <c r="E47" t="n">
-        <v>-9.673516829155504</v>
+        <v>-3.571052704972988</v>
       </c>
     </row>
     <row r="48">
@@ -1531,14 +1531,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5912</v>
+        <v>6477</v>
       </c>
       <c r="E48" t="n">
-        <v>-3.425289057340097</v>
+        <v>2.59477217046773</v>
       </c>
     </row>
     <row r="49">
@@ -1554,14 +1554,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6224</v>
+        <v>6642</v>
       </c>
       <c r="E49" t="n">
-        <v>-2.010174089422767</v>
+        <v>0.1125268746227537</v>
       </c>
     </row>
     <row r="50">
@@ -1577,14 +1577,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2107</v>
+        <v>2278</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.50806461253442</v>
+        <v>-12.30806277313633</v>
       </c>
     </row>
     <row r="51">
@@ -1600,14 +1600,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3302</v>
+        <v>3721</v>
       </c>
       <c r="E51" t="n">
-        <v>-23.65399563868147</v>
+        <v>-22.58132345051387</v>
       </c>
     </row>
     <row r="52">
@@ -1623,14 +1623,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2635</v>
+        <v>2774</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.41928996513653</v>
+        <v>-16.02618110461642</v>
       </c>
     </row>
     <row r="53">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2768</v>
+        <v>2904</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.71193404818513</v>
+        <v>-20.46963673852256</v>
       </c>
     </row>
     <row r="54">
@@ -1669,14 +1669,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3302</v>
+        <v>3481</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.109343841200046</v>
+        <v>-12.36883518502995</v>
       </c>
     </row>
     <row r="55">
@@ -1692,14 +1692,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2177</v>
+        <v>2301</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.9463950508338</v>
+        <v>-15.86500233335624</v>
       </c>
     </row>
     <row r="56">
@@ -1715,14 +1715,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4862</v>
+        <v>5303</v>
       </c>
       <c r="E56" t="n">
-        <v>-17.75617818418527</v>
+        <v>-18.1244341328657</v>
       </c>
     </row>
     <row r="57">
@@ -1738,14 +1738,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4937</v>
+        <v>5430</v>
       </c>
       <c r="E57" t="n">
-        <v>-20.68037482983345</v>
+        <v>-18.24718510107008</v>
       </c>
     </row>
     <row r="58">
@@ -1761,14 +1761,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2269</v>
+        <v>2439</v>
       </c>
       <c r="E58" t="n">
-        <v>7.701108851771821</v>
+        <v>7.08189880569785</v>
       </c>
     </row>
     <row r="59">
@@ -1784,14 +1784,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3309</v>
+        <v>3444</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2111261371857243</v>
+        <v>-7.435562874624113</v>
       </c>
     </row>
     <row r="60">
@@ -1807,14 +1807,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2819</v>
+        <v>2773</v>
       </c>
       <c r="E60" t="n">
-        <v>6.977271611627245</v>
+        <v>-0.02688680525517739</v>
       </c>
     </row>
     <row r="61">
@@ -1830,14 +1830,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2804</v>
+        <v>2974</v>
       </c>
       <c r="E61" t="n">
-        <v>1.306151391111587</v>
+        <v>2.405603265475342</v>
       </c>
     </row>
     <row r="62">
@@ -1853,14 +1853,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3385</v>
+        <v>3419</v>
       </c>
       <c r="E62" t="n">
-        <v>2.502994782683166</v>
+        <v>-1.789951185875882</v>
       </c>
     </row>
     <row r="63">
@@ -1876,14 +1876,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2257</v>
+        <v>2224</v>
       </c>
       <c r="E63" t="n">
-        <v>3.702222611681294</v>
+        <v>-3.331579793262751</v>
       </c>
     </row>
     <row r="64">
@@ -1899,14 +1899,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5029</v>
+        <v>5162</v>
       </c>
       <c r="E64" t="n">
-        <v>3.418255429744788</v>
+        <v>-2.665559355505287</v>
       </c>
     </row>
     <row r="65">
@@ -1922,14 +1922,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4858</v>
+        <v>4955</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.603048372197136</v>
+        <v>-8.753836820709704</v>
       </c>
     </row>
     <row r="66">
@@ -1945,14 +1945,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2194</v>
+        <v>2231</v>
       </c>
       <c r="E66" t="n">
-        <v>-3.30832533822718</v>
+        <v>-8.539726931107294</v>
       </c>
     </row>
     <row r="67">
@@ -1968,14 +1968,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3343</v>
+        <v>3495</v>
       </c>
       <c r="E67" t="n">
-        <v>1.032140339483845</v>
+        <v>1.485462743850996</v>
       </c>
     </row>
     <row r="68">
@@ -1991,14 +1991,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2616</v>
+        <v>2710</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.206454010376628</v>
+        <v>-2.288624208206913</v>
       </c>
     </row>
     <row r="69">
@@ -2014,14 +2014,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2831</v>
+        <v>2918</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9657790410997569</v>
+        <v>-1.881420168102999</v>
       </c>
     </row>
     <row r="70">
@@ -2037,14 +2037,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3197</v>
+        <v>3325</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.532099813410019</v>
+        <v>-2.75475701448169</v>
       </c>
     </row>
     <row r="71">
@@ -2060,14 +2060,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2236</v>
+        <v>2390</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9337258888277633</v>
+        <v>7.475511774977628</v>
       </c>
     </row>
     <row r="72">
@@ -2083,14 +2083,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>4860</v>
+        <v>5131</v>
       </c>
       <c r="E72" t="n">
-        <v>-3.353878132335597</v>
+        <v>-0.6056094884052121</v>
       </c>
     </row>
     <row r="73">
@@ -2106,14 +2106,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4791</v>
+        <v>4924</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.374126144044485</v>
+        <v>-0.622869886002253</v>
       </c>
     </row>
     <row r="74">
@@ -2129,14 +2129,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2082</v>
+        <v>2159</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.109889336070572</v>
+        <v>-3.206420551084976</v>
       </c>
     </row>
     <row r="75">
@@ -2152,14 +2152,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3299</v>
+        <v>3456</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.318156833080675</v>
+        <v>-1.118617548403467</v>
       </c>
     </row>
     <row r="76">
@@ -2175,14 +2175,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2635</v>
+        <v>2725</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7440778324482311</v>
+        <v>0.5862257823828987</v>
       </c>
     </row>
     <row r="77">
@@ -2198,14 +2198,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2804</v>
+        <v>2923</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9708887587138282</v>
+        <v>0.1431603038980045</v>
       </c>
     </row>
     <row r="78">
@@ -2221,14 +2221,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3270</v>
+        <v>3363</v>
       </c>
       <c r="E78" t="n">
-        <v>2.272146154565458</v>
+        <v>1.129990290152372</v>
       </c>
     </row>
     <row r="79">
@@ -2244,14 +2244,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2255</v>
+        <v>2315</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8475024358109984</v>
+        <v>-3.169171513549973</v>
       </c>
     </row>
     <row r="80">
@@ -2267,14 +2267,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>4868</v>
+        <v>4950</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1651391196733965</v>
+        <v>-3.51116088579968</v>
       </c>
     </row>
     <row r="81">
@@ -2290,20 +2290,20 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4641</v>
+        <v>4803</v>
       </c>
       <c r="E81" t="n">
-        <v>-3.126537087026704</v>
+        <v>-2.448742249084235</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2313,20 +2313,20 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1283</v>
+        <v>2205</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.65513301948977</v>
+        <v>2.115734353006737</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2336,20 +2336,20 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>3025</v>
+        <v>3383</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.29144918310254</v>
+        <v>-2.122552513122122</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2359,20 +2359,20 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2775</v>
+        <v>2759</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.79833340335555</v>
+        <v>1.230244826230864</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2382,20 +2382,20 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2854</v>
+        <v>2817</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.53023488955935</v>
+        <v>-3.610901338203087</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2405,20 +2405,20 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3595</v>
+        <v>3303</v>
       </c>
       <c r="E86" t="n">
-        <v>-12.67609477675105</v>
+        <v>-1.770253181277326</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2428,20 +2428,20 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2470</v>
+        <v>2335</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.74813602799415</v>
+        <v>0.878375609947657</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2451,20 +2451,20 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4916</v>
+        <v>4932</v>
       </c>
       <c r="E88" t="n">
-        <v>-12.86475529482465</v>
+        <v>-0.3731205034969154</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2474,14 +2474,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5395</v>
+        <v>4806</v>
       </c>
       <c r="E89" t="n">
-        <v>-10.1699930923048</v>
+        <v>0.05290993853286352</v>
       </c>
     </row>
     <row r="90">
@@ -2497,14 +2497,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1204</v>
+        <v>1297</v>
       </c>
       <c r="E90" t="n">
-        <v>-6.147725384388991</v>
+        <v>-18.82377832867652</v>
       </c>
     </row>
     <row r="91">
@@ -2520,14 +2520,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2739</v>
+        <v>3350</v>
       </c>
       <c r="E91" t="n">
-        <v>-9.455201728867301</v>
+        <v>-16.54054522737246</v>
       </c>
     </row>
     <row r="92">
@@ -2543,14 +2543,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2599</v>
+        <v>2920</v>
       </c>
       <c r="E92" t="n">
-        <v>-6.344620113889954</v>
+        <v>-15.50856030134229</v>
       </c>
     </row>
     <row r="93">
@@ -2566,14 +2566,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2770</v>
+        <v>3167</v>
       </c>
       <c r="E93" t="n">
-        <v>-2.946562529282892</v>
+        <v>-13.21103648061576</v>
       </c>
     </row>
     <row r="94">
@@ -2589,14 +2589,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3002</v>
+        <v>3704</v>
       </c>
       <c r="E94" t="n">
-        <v>-16.50302706904252</v>
+        <v>-11.72496562523757</v>
       </c>
     </row>
     <row r="95">
@@ -2612,14 +2612,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2376</v>
+        <v>2826</v>
       </c>
       <c r="E95" t="n">
-        <v>-3.809183758184198</v>
+        <v>-8.361341292081391</v>
       </c>
     </row>
     <row r="96">
@@ -2635,14 +2635,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4716</v>
+        <v>5052</v>
       </c>
       <c r="E96" t="n">
-        <v>-4.071206890109935</v>
+        <v>-15.04683591324862</v>
       </c>
     </row>
     <row r="97">
@@ -2658,14 +2658,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>5290</v>
+        <v>5737</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.947597336000884</v>
+        <v>-6.529866653316796</v>
       </c>
     </row>
     <row r="98">
@@ -2681,14 +2681,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1243</v>
+        <v>1228</v>
       </c>
       <c r="E98" t="n">
-        <v>3.252995493143884</v>
+        <v>-5.318253071677248</v>
       </c>
     </row>
     <row r="99">
@@ -2704,14 +2704,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>3102</v>
+        <v>2852</v>
       </c>
       <c r="E99" t="n">
-        <v>13.27372395972359</v>
+        <v>-14.84772460713532</v>
       </c>
     </row>
     <row r="100">
@@ -2727,14 +2727,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2741</v>
+        <v>2652</v>
       </c>
       <c r="E100" t="n">
-        <v>5.472516266308358</v>
+        <v>-9.154774965682865</v>
       </c>
     </row>
     <row r="101">
@@ -2750,14 +2750,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2738</v>
+        <v>2941</v>
       </c>
       <c r="E101" t="n">
-        <v>-1.142413040952983</v>
+        <v>-7.139768800502921</v>
       </c>
     </row>
     <row r="102">
@@ -2773,14 +2773,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3082</v>
+        <v>3324</v>
       </c>
       <c r="E102" t="n">
-        <v>2.669778123919686</v>
+        <v>-10.26863234150168</v>
       </c>
     </row>
     <row r="103">
@@ -2796,14 +2796,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2132</v>
+        <v>2338</v>
       </c>
       <c r="E103" t="n">
-        <v>-10.27899908873964</v>
+        <v>-17.27190378453212</v>
       </c>
     </row>
     <row r="104">
@@ -2819,14 +2819,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>4593</v>
+        <v>4559</v>
       </c>
       <c r="E104" t="n">
-        <v>-2.618049559941582</v>
+        <v>-9.751771241999585</v>
       </c>
     </row>
     <row r="105">
@@ -2842,14 +2842,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>5100</v>
+        <v>5347</v>
       </c>
       <c r="E105" t="n">
-        <v>-3.600162647360339</v>
+        <v>-6.807654866585555</v>
       </c>
     </row>
     <row r="106">
@@ -2865,14 +2865,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1175</v>
+        <v>1256</v>
       </c>
       <c r="E106" t="n">
-        <v>-5.513516259280237</v>
+        <v>2.288167058855728</v>
       </c>
     </row>
     <row r="107">
@@ -2888,14 +2888,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2731</v>
+        <v>2980</v>
       </c>
       <c r="E107" t="n">
-        <v>-11.95694207634427</v>
+        <v>4.475028559785588</v>
       </c>
     </row>
     <row r="108">
@@ -2911,14 +2911,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2347</v>
+        <v>2527</v>
       </c>
       <c r="E108" t="n">
-        <v>-14.37674093440784</v>
+        <v>-4.736512995184327</v>
       </c>
     </row>
     <row r="109">
@@ -2934,14 +2934,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2580</v>
+        <v>2844</v>
       </c>
       <c r="E109" t="n">
-        <v>-5.796404619660911</v>
+        <v>-3.272680150819152</v>
       </c>
     </row>
     <row r="110">
@@ -2957,14 +2957,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2969</v>
+        <v>2965</v>
       </c>
       <c r="E110" t="n">
-        <v>-3.655521019356833</v>
+        <v>-10.79165909235384</v>
       </c>
     </row>
     <row r="111">
@@ -2980,14 +2980,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>2142</v>
+        <v>2379</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5038397846341081</v>
+        <v>1.774803550345161</v>
       </c>
     </row>
     <row r="112">
@@ -3003,14 +3003,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>4748</v>
+        <v>4835</v>
       </c>
       <c r="E112" t="n">
-        <v>3.391537001882083</v>
+        <v>6.05467279575076</v>
       </c>
     </row>
     <row r="113">
@@ -3026,14 +3026,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>5148</v>
+        <v>5216</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9484328808110787</v>
+        <v>-2.440578519625825</v>
       </c>
     </row>
     <row r="114">
@@ -3049,14 +3049,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1176</v>
+        <v>1242</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07452545948578582</v>
+        <v>-1.067699914972786</v>
       </c>
     </row>
     <row r="115">
@@ -3072,14 +3072,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2516</v>
+        <v>3050</v>
       </c>
       <c r="E115" t="n">
-        <v>-7.890923265937988</v>
+        <v>2.331808703529337</v>
       </c>
     </row>
     <row r="116">
@@ -3095,14 +3095,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2105</v>
+        <v>2562</v>
       </c>
       <c r="E116" t="n">
-        <v>-10.32648351162602</v>
+        <v>1.387203730632325</v>
       </c>
     </row>
     <row r="117">
@@ -3118,14 +3118,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2516</v>
+        <v>2739</v>
       </c>
       <c r="E117" t="n">
-        <v>-2.472742281581397</v>
+        <v>-3.712406110875388</v>
       </c>
     </row>
     <row r="118">
@@ -3141,14 +3141,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2759</v>
+        <v>3112</v>
       </c>
       <c r="E118" t="n">
-        <v>-7.094869263609571</v>
+        <v>4.95652832266773</v>
       </c>
     </row>
     <row r="119">
@@ -3164,14 +3164,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2023</v>
+        <v>2155</v>
       </c>
       <c r="E119" t="n">
-        <v>-5.561156710606396</v>
+        <v>-9.405932559220586</v>
       </c>
     </row>
     <row r="120">
@@ -3187,14 +3187,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>4051</v>
+        <v>4605</v>
       </c>
       <c r="E120" t="n">
-        <v>-14.69646012533687</v>
+        <v>-4.751058374976347</v>
       </c>
     </row>
     <row r="121">
@@ -3210,14 +3210,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>5182</v>
+        <v>5356</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6677962291334882</v>
+        <v>2.678348534076758</v>
       </c>
     </row>
     <row r="122">
@@ -3233,14 +3233,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1236</v>
+        <v>1142</v>
       </c>
       <c r="E122" t="n">
-        <v>5.126114964335549</v>
+        <v>-8.048361993740228</v>
       </c>
     </row>
     <row r="123">
@@ -3256,14 +3256,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2547</v>
+        <v>2644</v>
       </c>
       <c r="E123" t="n">
-        <v>1.261116486584668</v>
+        <v>-13.30029372163657</v>
       </c>
     </row>
     <row r="124">
@@ -3279,14 +3279,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2139</v>
+        <v>2371</v>
       </c>
       <c r="E124" t="n">
-        <v>1.623531773895848</v>
+        <v>-7.441787611154316</v>
       </c>
     </row>
     <row r="125">
@@ -3302,14 +3302,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2355</v>
+        <v>2505</v>
       </c>
       <c r="E125" t="n">
-        <v>-6.403258746234508</v>
+        <v>-8.548531725792873</v>
       </c>
     </row>
     <row r="126">
@@ -3325,14 +3325,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2551</v>
+        <v>3013</v>
       </c>
       <c r="E126" t="n">
-        <v>-7.516091936355207</v>
+        <v>-3.189336346555383</v>
       </c>
     </row>
     <row r="127">
@@ -3348,14 +3348,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1807</v>
+        <v>2008</v>
       </c>
       <c r="E127" t="n">
-        <v>-10.69651553793615</v>
+        <v>-6.839898064333028</v>
       </c>
     </row>
     <row r="128">
@@ -3371,14 +3371,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4079</v>
+        <v>4511</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6902414883362518</v>
+        <v>-2.043554873835429</v>
       </c>
     </row>
     <row r="129">
@@ -3394,14 +3394,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>4700</v>
+        <v>5224</v>
       </c>
       <c r="E129" t="n">
-        <v>-9.29951842667216</v>
+        <v>-2.465563375806701</v>
       </c>
     </row>
     <row r="130">
@@ -3417,14 +3417,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>976</v>
+        <v>1335</v>
       </c>
       <c r="E130" t="n">
-        <v>-21.06179399059724</v>
+        <v>16.88773467831808</v>
       </c>
     </row>
     <row r="131">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2152</v>
+        <v>2847</v>
       </c>
       <c r="E131" t="n">
-        <v>-15.51733064008177</v>
+        <v>7.662699745700996</v>
       </c>
     </row>
     <row r="132">
@@ -3463,14 +3463,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1760</v>
+        <v>2141</v>
       </c>
       <c r="E132" t="n">
-        <v>-17.71183399737801</v>
+        <v>-9.712501629614778</v>
       </c>
     </row>
     <row r="133">
@@ -3486,14 +3486,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2037</v>
+        <v>2578</v>
       </c>
       <c r="E133" t="n">
-        <v>-13.47727109265201</v>
+        <v>2.906785870644035</v>
       </c>
     </row>
     <row r="134">
@@ -3509,14 +3509,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2259</v>
+        <v>2713</v>
       </c>
       <c r="E134" t="n">
-        <v>-11.46049669580558</v>
+        <v>-9.934711390865536</v>
       </c>
     </row>
     <row r="135">
@@ -3532,14 +3532,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1621</v>
+        <v>2017</v>
       </c>
       <c r="E135" t="n">
-        <v>-10.29708009252714</v>
+        <v>0.4517409026642882</v>
       </c>
     </row>
     <row r="136">
@@ -3555,14 +3555,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3453</v>
+        <v>4101</v>
       </c>
       <c r="E136" t="n">
-        <v>-15.34265799753285</v>
+        <v>-9.103141861777598</v>
       </c>
     </row>
     <row r="137">
@@ -3578,14 +3578,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>3802</v>
+        <v>5043</v>
       </c>
       <c r="E137" t="n">
-        <v>-19.11327763133602</v>
+        <v>-3.455648853289395</v>
       </c>
     </row>
     <row r="138">
@@ -3601,14 +3601,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1020</v>
+        <v>1051</v>
       </c>
       <c r="E138" t="n">
-        <v>4.535182297295282</v>
+        <v>-21.27993262843866</v>
       </c>
     </row>
     <row r="139">
@@ -3624,14 +3624,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2054</v>
+        <v>2352</v>
       </c>
       <c r="E139" t="n">
-        <v>-4.551437609237807</v>
+        <v>-17.38571027027712</v>
       </c>
     </row>
     <row r="140">
@@ -3647,14 +3647,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1786</v>
+        <v>1994</v>
       </c>
       <c r="E140" t="n">
-        <v>1.44820051741712</v>
+        <v>-6.881112961216584</v>
       </c>
     </row>
     <row r="141">
@@ -3670,14 +3670,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1943</v>
+        <v>2203</v>
       </c>
       <c r="E141" t="n">
-        <v>-4.607389418210439</v>
+        <v>-14.53836317293553</v>
       </c>
     </row>
     <row r="142">
@@ -3693,14 +3693,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2267</v>
+        <v>2321</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3575506519300831</v>
+        <v>-14.44657338311761</v>
       </c>
     </row>
     <row r="143">
@@ -3716,14 +3716,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1545</v>
+        <v>1817</v>
       </c>
       <c r="E143" t="n">
-        <v>-4.656714132708584</v>
+        <v>-9.920925903480427</v>
       </c>
     </row>
     <row r="144">
@@ -3739,14 +3739,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>3198</v>
+        <v>3692</v>
       </c>
       <c r="E144" t="n">
-        <v>-7.37459478051441</v>
+        <v>-9.967268484876179</v>
       </c>
     </row>
     <row r="145">
@@ -3762,14 +3762,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>3795</v>
+        <v>4062</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.1897403015452714</v>
+        <v>-19.455231956404</v>
       </c>
     </row>
     <row r="146">
@@ -3785,14 +3785,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1047</v>
+        <v>1083</v>
       </c>
       <c r="E146" t="n">
-        <v>2.674567966099373</v>
+        <v>3.016248600527094</v>
       </c>
     </row>
     <row r="147">
@@ -3808,14 +3808,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2099</v>
+        <v>2188</v>
       </c>
       <c r="E147" t="n">
-        <v>2.166058804860294</v>
+        <v>-6.97616546036085</v>
       </c>
     </row>
     <row r="148">
@@ -3831,14 +3831,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1798</v>
+        <v>1756</v>
       </c>
       <c r="E148" t="n">
-        <v>0.6908641919131542</v>
+        <v>-11.89317801488223</v>
       </c>
     </row>
     <row r="149">
@@ -3854,14 +3854,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2009</v>
+        <v>2078</v>
       </c>
       <c r="E149" t="n">
-        <v>3.350392812357006</v>
+        <v>-5.676369203409426</v>
       </c>
     </row>
     <row r="150">
@@ -3877,14 +3877,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2158</v>
+        <v>2334</v>
       </c>
       <c r="E150" t="n">
-        <v>-4.787007635964602</v>
+        <v>0.5410828023352687</v>
       </c>
     </row>
     <row r="151">
@@ -3900,14 +3900,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1501</v>
+        <v>1611</v>
       </c>
       <c r="E151" t="n">
-        <v>-2.856808096575991</v>
+        <v>-11.32185728588141</v>
       </c>
     </row>
     <row r="152">
@@ -3923,14 +3923,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>3265</v>
+        <v>3188</v>
       </c>
       <c r="E152" t="n">
-        <v>2.105908950580071</v>
+        <v>-13.64573971803203</v>
       </c>
     </row>
     <row r="153">
@@ -3946,14 +3946,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>3580</v>
+        <v>3904</v>
       </c>
       <c r="E153" t="n">
-        <v>-5.660199467695081</v>
+        <v>-3.892262580371553</v>
       </c>
     </row>
     <row r="154">
@@ -3969,14 +3969,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1094</v>
+        <v>1038</v>
       </c>
       <c r="E154" t="n">
-        <v>4.462710439472661</v>
+        <v>-4.114271824042859</v>
       </c>
     </row>
     <row r="155">
@@ -3992,14 +3992,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2111</v>
+        <v>2163</v>
       </c>
       <c r="E155" t="n">
-        <v>0.5850917619807161</v>
+        <v>-1.119382788660628</v>
       </c>
     </row>
     <row r="156">
@@ -4015,14 +4015,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1690</v>
+        <v>1926</v>
       </c>
       <c r="E156" t="n">
-        <v>-5.999094631162794</v>
+        <v>9.646565539060159</v>
       </c>
     </row>
     <row r="157">
@@ -4038,14 +4038,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2056</v>
+        <v>2020</v>
       </c>
       <c r="E157" t="n">
-        <v>2.361599105241075</v>
+        <v>-2.786319897631806</v>
       </c>
     </row>
     <row r="158">
@@ -4061,14 +4061,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2193</v>
+        <v>2287</v>
       </c>
       <c r="E158" t="n">
-        <v>1.599539929382021</v>
+        <v>-2.028666367433429</v>
       </c>
     </row>
     <row r="159">
@@ -4084,14 +4084,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1609</v>
+        <v>1541</v>
       </c>
       <c r="E159" t="n">
-        <v>7.182154435579546</v>
+        <v>-4.349231435874412</v>
       </c>
     </row>
     <row r="160">
@@ -4107,14 +4107,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>3282</v>
+        <v>3401</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5055355335793044</v>
+        <v>6.690847097013131</v>
       </c>
     </row>
     <row r="161">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>3705</v>
+        <v>3769</v>
       </c>
       <c r="E161" t="n">
-        <v>3.492043071637374</v>
+        <v>-3.465159177099508</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4153,20 +4153,20 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1406</v>
+        <v>1107</v>
       </c>
       <c r="E162" t="n">
-        <v>-16.23222487315936</v>
+        <v>6.637601354982414</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4176,20 +4176,20 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>3497</v>
+        <v>2157</v>
       </c>
       <c r="E163" t="n">
-        <v>-14.62067238148974</v>
+        <v>-0.2703826414234167</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4199,20 +4199,20 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2748</v>
+        <v>1751</v>
       </c>
       <c r="E164" t="n">
-        <v>-17.08204648083198</v>
+        <v>-9.102016604320584</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4222,20 +4222,20 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>3246</v>
+        <v>2112</v>
       </c>
       <c r="E165" t="n">
-        <v>-11.02984600056589</v>
+        <v>4.579588932064138</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4245,20 +4245,20 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>3674</v>
+        <v>2306</v>
       </c>
       <c r="E166" t="n">
-        <v>-20.48513039869849</v>
+        <v>0.8632362760115919</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4268,20 +4268,20 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2250</v>
+        <v>1519</v>
       </c>
       <c r="E167" t="n">
-        <v>-25.92555981875233</v>
+        <v>-1.428833650212413</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4291,20 +4291,20 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>4815</v>
+        <v>3250</v>
       </c>
       <c r="E168" t="n">
-        <v>-16.08793072164759</v>
+        <v>-4.455284793840331</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4314,20 +4314,20 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>6133</v>
+        <v>3858</v>
       </c>
       <c r="E169" t="n">
-        <v>-18.80698927483271</v>
+        <v>2.363216308906702</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4337,20 +4337,20 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1399</v>
+        <v>1098</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.5246605415571759</v>
+        <v>-0.8387498631792334</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4360,20 +4360,20 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>3730</v>
+        <v>2130</v>
       </c>
       <c r="E171" t="n">
-        <v>6.668223066046974</v>
+        <v>-1.262237204206795</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4383,20 +4383,20 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2676</v>
+        <v>1852</v>
       </c>
       <c r="E172" t="n">
-        <v>-2.615747252091083</v>
+        <v>5.792396722777315</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4406,20 +4406,20 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2644</v>
+        <v>2008</v>
       </c>
       <c r="E173" t="n">
-        <v>-18.55824374935762</v>
+        <v>-4.942051476628206</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4429,20 +4429,20 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>3170</v>
+        <v>2321</v>
       </c>
       <c r="E174" t="n">
-        <v>-13.7259757450408</v>
+        <v>0.6361903216886899</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4452,20 +4452,20 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>2642</v>
+        <v>1699</v>
       </c>
       <c r="E175" t="n">
-        <v>17.40680009142728</v>
+        <v>11.84021597224307</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4475,20 +4475,20 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>4941</v>
+        <v>3330</v>
       </c>
       <c r="E176" t="n">
-        <v>2.606222733031216</v>
+        <v>2.464069667561675</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4498,14 +4498,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>7169</v>
+        <v>3849</v>
       </c>
       <c r="E177" t="n">
-        <v>16.89592620443971</v>
+        <v>-0.2276142896731836</v>
       </c>
     </row>
     <row r="178">
@@ -4521,14 +4521,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1607</v>
+        <v>1386</v>
       </c>
       <c r="E178" t="n">
-        <v>14.89207372853651</v>
+        <v>-13.2538723944307</v>
       </c>
     </row>
     <row r="179">
@@ -4544,14 +4544,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>2936</v>
+        <v>3809</v>
       </c>
       <c r="E179" t="n">
-        <v>-21.29157089371418</v>
+        <v>-19.96028574216483</v>
       </c>
     </row>
     <row r="180">
@@ -4567,14 +4567,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>3020</v>
+        <v>2926</v>
       </c>
       <c r="E180" t="n">
-        <v>12.84077364607867</v>
+        <v>-22.58914460383735</v>
       </c>
     </row>
     <row r="181">
@@ -4590,14 +4590,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>3018</v>
+        <v>3386</v>
       </c>
       <c r="E181" t="n">
-        <v>14.18237097780677</v>
+        <v>-31.22885277976231</v>
       </c>
     </row>
     <row r="182">
@@ -4613,14 +4613,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2260</v>
+        <v>3541</v>
       </c>
       <c r="E182" t="n">
-        <v>-28.6963652495768</v>
+        <v>-8.407742846259648</v>
       </c>
     </row>
     <row r="183">
@@ -4636,14 +4636,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2250</v>
+        <v>2875</v>
       </c>
       <c r="E183" t="n">
-        <v>-14.83433284350379</v>
+        <v>3.799644127555402</v>
       </c>
     </row>
     <row r="184">
@@ -4659,14 +4659,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>4045</v>
+        <v>4933</v>
       </c>
       <c r="E184" t="n">
-        <v>-18.12198697327576</v>
+        <v>-10.95239698627483</v>
       </c>
     </row>
     <row r="185">
@@ -4682,14 +4682,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>5435</v>
+        <v>6807</v>
       </c>
       <c r="E185" t="n">
-        <v>-24.1961018163057</v>
+        <v>-14.4679935202681</v>
       </c>
     </row>
     <row r="186">
@@ -4705,14 +4705,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1395</v>
+        <v>1411</v>
       </c>
       <c r="E186" t="n">
-        <v>-13.22333620146095</v>
+        <v>1.803148454907122</v>
       </c>
     </row>
     <row r="187">
@@ -4728,14 +4728,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2994</v>
+        <v>3782</v>
       </c>
       <c r="E187" t="n">
-        <v>1.984324544968996</v>
+        <v>-0.7071881272065372</v>
       </c>
     </row>
     <row r="188">
@@ -4751,14 +4751,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2223</v>
+        <v>2795</v>
       </c>
       <c r="E188" t="n">
-        <v>-26.38246433387885</v>
+        <v>-4.485660160757499</v>
       </c>
     </row>
     <row r="189">
@@ -4774,14 +4774,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2509</v>
+        <v>2894</v>
       </c>
       <c r="E189" t="n">
-        <v>-16.89275367561114</v>
+        <v>-14.52319021575516</v>
       </c>
     </row>
     <row r="190">
@@ -4797,14 +4797,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2826</v>
+        <v>2975</v>
       </c>
       <c r="E190" t="n">
-        <v>25.02938303570568</v>
+        <v>-15.98547577699976</v>
       </c>
     </row>
     <row r="191">
@@ -4820,14 +4820,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>2202</v>
+        <v>2246</v>
       </c>
       <c r="E191" t="n">
-        <v>-2.125531216195053</v>
+        <v>-21.87522722032438</v>
       </c>
     </row>
     <row r="192">
@@ -4843,14 +4843,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4002</v>
+        <v>4565</v>
       </c>
       <c r="E192" t="n">
-        <v>-1.063821278417754</v>
+        <v>-7.455776417322202</v>
       </c>
     </row>
     <row r="193">
@@ -4866,14 +4866,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>5625</v>
+        <v>7198</v>
       </c>
       <c r="E193" t="n">
-        <v>3.510647249273613</v>
+        <v>5.744868568190808</v>
       </c>
     </row>
     <row r="194">
@@ -4889,14 +4889,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1125</v>
+        <v>1328</v>
       </c>
       <c r="E194" t="n">
-        <v>-19.34153909182717</v>
+        <v>-5.851865272668045</v>
       </c>
     </row>
     <row r="195">
@@ -4912,14 +4912,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>2506</v>
+        <v>3192</v>
       </c>
       <c r="E195" t="n">
-        <v>-16.29618447502986</v>
+        <v>-15.60230961861604</v>
       </c>
     </row>
     <row r="196">
@@ -4935,14 +4935,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>2102</v>
+        <v>3417</v>
       </c>
       <c r="E196" t="n">
-        <v>-5.449088569661709</v>
+        <v>22.24280212221741</v>
       </c>
     </row>
     <row r="197">
@@ -4958,14 +4958,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2384</v>
+        <v>2742</v>
       </c>
       <c r="E197" t="n">
-        <v>-4.979623797230259</v>
+        <v>-5.256340559928518</v>
       </c>
     </row>
     <row r="198">
@@ -4981,14 +4981,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>2572</v>
+        <v>2634</v>
       </c>
       <c r="E198" t="n">
-        <v>-8.992799655003436</v>
+        <v>-11.46818617106518</v>
       </c>
     </row>
     <row r="199">
@@ -5004,14 +5004,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1997</v>
+        <v>2415</v>
       </c>
       <c r="E199" t="n">
-        <v>-9.340109120800133</v>
+        <v>7.527736990717515</v>
       </c>
     </row>
     <row r="200">
@@ -5027,14 +5027,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>3339</v>
+        <v>4665</v>
       </c>
       <c r="E200" t="n">
-        <v>-16.56667837201178</v>
+        <v>2.183468833604607</v>
       </c>
     </row>
     <row r="201">
@@ -5050,14 +5050,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>5337</v>
+        <v>6177</v>
       </c>
       <c r="E201" t="n">
-        <v>-5.124815967845975</v>
+        <v>-14.18138531686712</v>
       </c>
     </row>
     <row r="202">
@@ -5073,14 +5073,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1119</v>
+        <v>1454</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.5768090394207226</v>
+        <v>9.503885269584988</v>
       </c>
     </row>
     <row r="203">
@@ -5096,14 +5096,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>2417</v>
+        <v>2829</v>
       </c>
       <c r="E203" t="n">
-        <v>-3.558003564645762</v>
+        <v>-11.38517782908171</v>
       </c>
     </row>
     <row r="204">
@@ -5119,14 +5119,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>2097</v>
+        <v>2764</v>
       </c>
       <c r="E204" t="n">
-        <v>-0.2521001183013682</v>
+        <v>-19.1159590725989</v>
       </c>
     </row>
     <row r="205">
@@ -5142,14 +5142,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>2878</v>
+        <v>2688</v>
       </c>
       <c r="E205" t="n">
-        <v>20.7490223647125</v>
+        <v>-1.969452392306326</v>
       </c>
     </row>
     <row r="206">
@@ -5165,14 +5165,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2227</v>
+        <v>2974</v>
       </c>
       <c r="E206" t="n">
-        <v>-13.40836658780894</v>
+        <v>12.92303473620451</v>
       </c>
     </row>
     <row r="207">
@@ -5188,14 +5188,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>2221</v>
+        <v>2501</v>
       </c>
       <c r="E207" t="n">
-        <v>11.21904318274691</v>
+        <v>3.540749790814002</v>
       </c>
     </row>
     <row r="208">
@@ -5211,14 +5211,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>4207</v>
+        <v>4351</v>
       </c>
       <c r="E208" t="n">
-        <v>26.00253412947115</v>
+        <v>-6.721703278495806</v>
       </c>
     </row>
     <row r="209">
@@ -5234,14 +5234,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>5338</v>
+        <v>6047</v>
       </c>
       <c r="E209" t="n">
-        <v>0.008299710610204514</v>
+        <v>-2.10646720182589</v>
       </c>
     </row>
     <row r="210">
@@ -5257,14 +5257,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>1067</v>
+        <v>1106</v>
       </c>
       <c r="E210" t="n">
-        <v>-4.577600128497661</v>
+        <v>-23.93419167022848</v>
       </c>
     </row>
     <row r="211">
@@ -5280,14 +5280,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>2435</v>
+        <v>2733</v>
       </c>
       <c r="E211" t="n">
-        <v>0.7461452843015914</v>
+        <v>-3.390525020222834</v>
       </c>
     </row>
     <row r="212">
@@ -5303,14 +5303,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>2122</v>
+        <v>2316</v>
       </c>
       <c r="E212" t="n">
-        <v>1.206211118281364</v>
+        <v>-16.21303573353595</v>
       </c>
     </row>
     <row r="213">
@@ -5326,14 +5326,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1764</v>
+        <v>2343</v>
       </c>
       <c r="E213" t="n">
-        <v>-38.72881356964296</v>
+        <v>-12.82515528356907</v>
       </c>
     </row>
     <row r="214">
@@ -5349,14 +5349,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>2228</v>
+        <v>2982</v>
       </c>
       <c r="E214" t="n">
-        <v>0.02794848915363968</v>
+        <v>0.2698326873374457</v>
       </c>
     </row>
     <row r="215">
@@ -5372,14 +5372,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1475</v>
+        <v>1908</v>
       </c>
       <c r="E215" t="n">
-        <v>-33.59319553508311</v>
+        <v>-23.71445470160866</v>
       </c>
     </row>
     <row r="216">
@@ -5395,14 +5395,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>3059</v>
+        <v>4355</v>
       </c>
       <c r="E216" t="n">
-        <v>-27.28544937257741</v>
+        <v>0.0927880777244372</v>
       </c>
     </row>
     <row r="217">
@@ -5418,14 +5418,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>4889</v>
+        <v>5570</v>
       </c>
       <c r="E217" t="n">
-        <v>-8.402237903251642</v>
+        <v>-7.879475476660835</v>
       </c>
     </row>
     <row r="218">
@@ -5441,14 +5441,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1143</v>
+        <v>1126</v>
       </c>
       <c r="E218" t="n">
-        <v>7.0669471962721</v>
+        <v>1.815617706102679</v>
       </c>
     </row>
     <row r="219">
@@ -5464,14 +5464,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>2456</v>
+        <v>2639</v>
       </c>
       <c r="E219" t="n">
-        <v>0.8363653611933586</v>
+        <v>-3.445319134895664</v>
       </c>
     </row>
     <row r="220">
@@ -5487,14 +5487,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1655</v>
+        <v>2265</v>
       </c>
       <c r="E220" t="n">
-        <v>-22.00781950131617</v>
+        <v>-2.194752209297923</v>
       </c>
     </row>
     <row r="221">
@@ -5510,14 +5510,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1828</v>
+        <v>3230</v>
       </c>
       <c r="E221" t="n">
-        <v>3.67344737984312</v>
+        <v>37.83511578956795</v>
       </c>
     </row>
     <row r="222">
@@ -5533,14 +5533,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1914</v>
+        <v>2543</v>
       </c>
       <c r="E222" t="n">
-        <v>-14.08485433216612</v>
+        <v>-14.72487547789792</v>
       </c>
     </row>
     <row r="223">
@@ -5556,14 +5556,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>1319</v>
+        <v>2416</v>
       </c>
       <c r="E223" t="n">
-        <v>-10.52625716828974</v>
+        <v>26.66316641627411</v>
       </c>
     </row>
     <row r="224">
@@ -5579,14 +5579,14 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>3083</v>
+        <v>3234</v>
       </c>
       <c r="E224" t="n">
-        <v>0.7688364690664473</v>
+        <v>-25.75036153994438</v>
       </c>
     </row>
     <row r="225">
@@ -5602,14 +5602,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>4263</v>
+        <v>5011</v>
       </c>
       <c r="E225" t="n">
-        <v>-12.80420582981398</v>
+        <v>-10.03466722907362</v>
       </c>
     </row>
     <row r="226">
@@ -5625,14 +5625,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>893</v>
+        <v>1094</v>
       </c>
       <c r="E226" t="n">
-        <v>-21.84581830043239</v>
+        <v>-2.912195308045273</v>
       </c>
     </row>
     <row r="227">
@@ -5648,14 +5648,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>2319</v>
+        <v>2969</v>
       </c>
       <c r="E227" t="n">
-        <v>-5.569699115309601</v>
+        <v>12.49611431874265</v>
       </c>
     </row>
     <row r="228">
@@ -5671,14 +5671,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1741</v>
+        <v>1753</v>
       </c>
       <c r="E228" t="n">
-        <v>5.210900346517944</v>
+        <v>-22.60183121533698</v>
       </c>
     </row>
     <row r="229">
@@ -5694,14 +5694,14 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1892</v>
+        <v>2121</v>
       </c>
       <c r="E229" t="n">
-        <v>3.495615301139599</v>
+        <v>-34.34652269352153</v>
       </c>
     </row>
     <row r="230">
@@ -5717,14 +5717,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>2112</v>
+        <v>1989</v>
       </c>
       <c r="E230" t="n">
-        <v>10.37226718986719</v>
+        <v>-21.7949028906528</v>
       </c>
     </row>
     <row r="231">
@@ -5740,14 +5740,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1257</v>
+        <v>1606</v>
       </c>
       <c r="E231" t="n">
-        <v>-4.734884092772395</v>
+        <v>-33.52045179200198</v>
       </c>
     </row>
     <row r="232">
@@ -5763,14 +5763,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>2632</v>
+        <v>3140</v>
       </c>
       <c r="E232" t="n">
-        <v>-14.61802202363367</v>
+        <v>-2.894509344432294</v>
       </c>
     </row>
     <row r="233">
@@ -5786,14 +5786,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>3791</v>
+        <v>5049</v>
       </c>
       <c r="E233" t="n">
-        <v>-11.08107049116616</v>
+        <v>0.7556580152237702</v>
       </c>
     </row>
     <row r="234">
@@ -5809,14 +5809,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1068</v>
+        <v>1117</v>
       </c>
       <c r="E234" t="n">
-        <v>19.57519952473095</v>
+        <v>2.16488757356641</v>
       </c>
     </row>
     <row r="235">
@@ -5832,14 +5832,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>2049</v>
+        <v>2316</v>
       </c>
       <c r="E235" t="n">
-        <v>-11.63784641659215</v>
+        <v>-21.99436126585024</v>
       </c>
     </row>
     <row r="236">
@@ -5855,14 +5855,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="E236" t="n">
-        <v>-1.909332431626598</v>
+        <v>-2.467729300535138</v>
       </c>
     </row>
     <row r="237">
@@ -5878,14 +5878,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>2364</v>
+        <v>2074</v>
       </c>
       <c r="E237" t="n">
-        <v>24.9337345639699</v>
+        <v>-2.179271051154141</v>
       </c>
     </row>
     <row r="238">
@@ -5901,14 +5901,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>2515</v>
+        <v>2144</v>
       </c>
       <c r="E238" t="n">
-        <v>19.06178661796964</v>
+        <v>7.813957293414608</v>
       </c>
     </row>
     <row r="239">
@@ -5924,14 +5924,14 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1397</v>
+        <v>1463</v>
       </c>
       <c r="E239" t="n">
-        <v>11.14416803571789</v>
+        <v>-8.956698608077151</v>
       </c>
     </row>
     <row r="240">
@@ -5947,14 +5947,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>2842</v>
+        <v>3535</v>
       </c>
       <c r="E240" t="n">
-        <v>7.965951657646864</v>
+        <v>12.55630953015816</v>
       </c>
     </row>
     <row r="241">
@@ -5970,14 +5970,566 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>4426</v>
+        <v>4122</v>
       </c>
       <c r="E241" t="n">
-        <v>16.75955848491288</v>
+        <v>-18.35523327592436</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>925</v>
+      </c>
+      <c r="E242" t="n">
+        <v>-17.23320394666145</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>2484</v>
+      </c>
+      <c r="E243" t="n">
+        <v>7.288890113747226</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>1734</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.401022600284052</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>1869</v>
+      </c>
+      <c r="E245" t="n">
+        <v>-9.897016400916991</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>2134</v>
+      </c>
+      <c r="E246" t="n">
+        <v>-0.49179648825457</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>1454</v>
+      </c>
+      <c r="E247" t="n">
+        <v>-0.6057088227646501</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>3109</v>
+      </c>
+      <c r="E248" t="n">
+        <v>-12.05504491716058</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>4141</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.4615051561692063</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>1016</v>
+      </c>
+      <c r="E250" t="n">
+        <v>9.824200440051612</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E251" t="n">
+        <v>-20.13641362261934</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>1894</v>
+      </c>
+      <c r="E252" t="n">
+        <v>9.285162057660212</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>2277</v>
+      </c>
+      <c r="E253" t="n">
+        <v>21.83329219464409</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>2243</v>
+      </c>
+      <c r="E254" t="n">
+        <v>5.116297008061088</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E255" t="n">
+        <v>-0.9506810120858633</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>2907</v>
+      </c>
+      <c r="E256" t="n">
+        <v>-6.486861377702535</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>4425</v>
+      </c>
+      <c r="E257" t="n">
+        <v>6.846481748141531</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Agricultura, pecuária, produção florestal, pesca e aquicultura</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>1283</v>
+      </c>
+      <c r="E258" t="n">
+        <v>26.33738094736797</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Indústria geral</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>2725</v>
+      </c>
+      <c r="E259" t="n">
+        <v>37.33836987971846</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>2098</v>
+      </c>
+      <c r="E260" t="n">
+        <v>10.7426027809842</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Comércio, reparação de veículos automotores e motocicletas</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>2275</v>
+      </c>
+      <c r="E261" t="n">
+        <v>-0.09368582526598779</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>2452</v>
+      </c>
+      <c r="E262" t="n">
+        <v>9.331227829934875</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Alojamento e alimentação</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>2093</v>
+      </c>
+      <c r="E263" t="n">
+        <v>45.35826136495986</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>3479</v>
+      </c>
+      <c r="E264" t="n">
+        <v>19.68117085127103</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Administração pública, defesa, seguridade social, educação, saúde humana e serviços sociais</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>4362</v>
+      </c>
+      <c r="E265" t="n">
+        <v>-1.42325901673368</v>
       </c>
     </row>
   </sheetData>
